--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.864690319971402</v>
+        <v>1.864690319971743</v>
       </c>
       <c r="C2">
-        <v>0.2989777502157551</v>
+        <v>0.2989777502160678</v>
       </c>
       <c r="D2">
-        <v>0.2030304536983607</v>
+        <v>0.2030304536980765</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1437745699834032</v>
+        <v>0.1437745699833854</v>
       </c>
       <c r="J2">
-        <v>0.4629086040129167</v>
+        <v>0.462908604012938</v>
       </c>
       <c r="K2">
-        <v>0.1262845041349188</v>
+        <v>0.1262845041348477</v>
       </c>
       <c r="L2">
         <v>0.5163504952346116</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.599116709937988</v>
+        <v>1.599116709937903</v>
       </c>
       <c r="C3">
-        <v>0.2556353512254788</v>
+        <v>0.2556353512251661</v>
       </c>
       <c r="D3">
-        <v>0.1798705170811701</v>
+        <v>0.1798705170811985</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.806470768270628</v>
+        <v>5.8064707682706</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1285177303655765</v>
+        <v>0.1285177303655622</v>
       </c>
       <c r="J3">
-        <v>0.3957096552177219</v>
+        <v>0.3957096552177148</v>
       </c>
       <c r="K3">
-        <v>0.1095443726520919</v>
+        <v>0.10954437265206</v>
       </c>
       <c r="L3">
         <v>0.4444643936652852</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.440438006630046</v>
+        <v>1.440438006629734</v>
       </c>
       <c r="C4">
-        <v>0.2297369101872704</v>
+        <v>0.2297369101872562</v>
       </c>
       <c r="D4">
-        <v>0.1659500211724207</v>
+        <v>0.165950021172165</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.343065447815178</v>
+        <v>5.343065447815121</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1193703104812016</v>
+        <v>0.1193703104811981</v>
       </c>
       <c r="J4">
-        <v>0.3555577379245207</v>
+        <v>0.3555577379245562</v>
       </c>
       <c r="K4">
-        <v>0.09955122183004761</v>
+        <v>0.09955122183005827</v>
       </c>
       <c r="L4">
-        <v>0.4015288952848337</v>
+        <v>0.4015288952848266</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.37672322488487</v>
+        <v>1.376723224885069</v>
       </c>
       <c r="C5">
-        <v>0.2193322731838663</v>
+        <v>0.2193322731835536</v>
       </c>
       <c r="D5">
-        <v>0.1603394752043528</v>
+        <v>0.1603394752044665</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.156514127728087</v>
+        <v>5.156514127728116</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1156901591683592</v>
+        <v>0.1156901591683344</v>
       </c>
       <c r="J5">
-        <v>0.3394335457246669</v>
+        <v>0.3394335457246527</v>
       </c>
       <c r="K5">
-        <v>0.09554131694885726</v>
+        <v>0.09554131694882884</v>
       </c>
       <c r="L5">
-        <v>0.3842937027047171</v>
+        <v>0.3842937027047242</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.366196490080512</v>
+        <v>1.366196490080455</v>
       </c>
       <c r="C6">
-        <v>0.2176127787154485</v>
+        <v>0.2176127787156332</v>
       </c>
       <c r="D6">
-        <v>0.1594112420213492</v>
+        <v>0.1594112420214486</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.125664865160303</v>
+        <v>5.12566486516036</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1150817251897926</v>
+        <v>0.1150817251897749</v>
       </c>
       <c r="J6">
-        <v>0.336769405683377</v>
+        <v>0.3367694056833415</v>
       </c>
       <c r="K6">
-        <v>0.09487898751050139</v>
+        <v>0.09487898751048007</v>
       </c>
       <c r="L6">
-        <v>0.3814464783435199</v>
+        <v>0.3814464783435341</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.439575080263182</v>
+        <v>1.43957508026304</v>
       </c>
       <c r="C7">
-        <v>0.2295960231930394</v>
+        <v>0.2295960231925989</v>
       </c>
       <c r="D7">
-        <v>0.165874120163565</v>
+        <v>0.1658741201638207</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.340540775659463</v>
+        <v>5.340540775659548</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1193204962418228</v>
+        <v>0.1193204962417767</v>
       </c>
       <c r="J7">
-        <v>0.3553393682241719</v>
+        <v>0.355339368224179</v>
       </c>
       <c r="K7">
-        <v>0.09949690193698046</v>
+        <v>0.09949690193699823</v>
       </c>
       <c r="L7">
-        <v>0.4012954483435109</v>
+        <v>0.4012954483434896</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.77211208713814</v>
+        <v>1.772112087138453</v>
       </c>
       <c r="C8">
-        <v>0.2838657119131369</v>
+        <v>0.2838657119134496</v>
       </c>
       <c r="D8">
-        <v>0.1949742835417538</v>
+        <v>0.1949742835416686</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.309903601426811</v>
+        <v>6.309903601426868</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1384632557463377</v>
+        <v>0.1384632557463625</v>
       </c>
       <c r="J8">
-        <v>0.4394823775697461</v>
+        <v>0.4394823775697105</v>
       </c>
       <c r="K8">
-        <v>0.1204473194937634</v>
+        <v>0.1204473194937492</v>
       </c>
       <c r="L8">
         <v>0.4912883411973397</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.467003796958977</v>
+        <v>2.467003796958863</v>
       </c>
       <c r="C9">
-        <v>0.39753599349757</v>
+        <v>0.3975359934975415</v>
       </c>
       <c r="D9">
-        <v>0.2550982130470629</v>
+        <v>0.2550982130472903</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.316132386589487</v>
+        <v>8.316132386589572</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1781566897088531</v>
+        <v>0.1781566897088247</v>
       </c>
       <c r="J9">
-        <v>0.6153932845370917</v>
+        <v>0.6153932845370633</v>
       </c>
       <c r="K9">
-        <v>0.1642783195615571</v>
+        <v>0.1642783195615749</v>
       </c>
       <c r="L9">
-        <v>0.6794326602919725</v>
+        <v>0.6794326602920151</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>3.016705765671304</v>
       </c>
       <c r="C10">
-        <v>0.4880798683715852</v>
+        <v>0.4880798683716421</v>
       </c>
       <c r="D10">
-        <v>0.302239812533017</v>
+        <v>0.3022398125328181</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2092909543984867</v>
+        <v>0.2092909543985044</v>
       </c>
       <c r="J10">
-        <v>0.7547441998043283</v>
+        <v>0.7547441998043425</v>
       </c>
       <c r="K10">
-        <v>0.1989416713119851</v>
+        <v>0.1989416713119994</v>
       </c>
       <c r="L10">
-        <v>0.8282426013759547</v>
+        <v>0.8282426013759974</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.278888361252712</v>
+        <v>3.278888361253223</v>
       </c>
       <c r="C11">
-        <v>0.53152661001306</v>
+        <v>0.5315266100125768</v>
       </c>
       <c r="D11">
-        <v>0.3246320081640164</v>
+        <v>0.3246320081642722</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2240618490173567</v>
+        <v>0.224061849017378</v>
       </c>
       <c r="J11">
-        <v>0.8212901503826657</v>
+        <v>0.8212901503826728</v>
       </c>
       <c r="K11">
-        <v>0.2154601958193538</v>
+        <v>0.2154601958194036</v>
       </c>
       <c r="L11">
-        <v>0.8991899739844911</v>
+        <v>0.899189973984484</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.380282753766039</v>
+        <v>3.380282753765869</v>
       </c>
       <c r="C12">
-        <v>0.54837917565726</v>
+        <v>0.5483791756572316</v>
       </c>
       <c r="D12">
-        <v>0.3332783122555441</v>
+        <v>0.333278312255473</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.92015219730871</v>
+        <v>10.92015219730888</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2297607609283503</v>
+        <v>0.2297607609283432</v>
       </c>
       <c r="J12">
-        <v>0.8470413869183346</v>
+        <v>0.8470413869183062</v>
       </c>
       <c r="K12">
-        <v>0.2218450804755818</v>
+        <v>0.2218450804755747</v>
       </c>
       <c r="L12">
         <v>0.9266211103054616</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.35834511672391</v>
+        <v>3.358345116724138</v>
       </c>
       <c r="C13">
-        <v>0.5447305072435711</v>
+        <v>0.5447305072436848</v>
       </c>
       <c r="D13">
-        <v>0.3314082050739131</v>
+        <v>0.331408205073572</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.85799570168814</v>
+        <v>10.85799570168791</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2285283826213771</v>
+        <v>0.2285283826213629</v>
       </c>
       <c r="J13">
-        <v>0.8414690921552861</v>
+        <v>0.84146909215535</v>
       </c>
       <c r="K13">
-        <v>0.2204638226393669</v>
+        <v>0.2204638226393953</v>
       </c>
       <c r="L13">
-        <v>0.9206864556213361</v>
+        <v>0.9206864556213787</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.287185458355452</v>
+        <v>3.287185458355111</v>
       </c>
       <c r="C14">
-        <v>0.532904572814914</v>
+        <v>0.5329045728150277</v>
       </c>
       <c r="D14">
-        <v>0.3253398047154406</v>
+        <v>0.3253398047154832</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.6562480798533</v>
+        <v>10.65624807985313</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2245284722452396</v>
+        <v>0.2245284722452539</v>
       </c>
       <c r="J14">
-        <v>0.8233970330832889</v>
+        <v>0.823397033083296</v>
       </c>
       <c r="K14">
-        <v>0.2159827457372288</v>
+        <v>0.2159827457372572</v>
       </c>
       <c r="L14">
-        <v>0.9014348068812907</v>
+        <v>0.9014348068812552</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.243885227365865</v>
+        <v>3.243885227366093</v>
       </c>
       <c r="C15">
-        <v>0.5257154663372887</v>
+        <v>0.5257154663373456</v>
       </c>
       <c r="D15">
-        <v>0.3216454710478729</v>
+        <v>0.3216454710479439</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.53338886817295</v>
+        <v>10.53338886817301</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2220927430540556</v>
+        <v>0.22209274305402</v>
       </c>
       <c r="J15">
-        <v>0.8124024589098937</v>
+        <v>0.8124024589099079</v>
       </c>
       <c r="K15">
         <v>0.2132555608856421</v>
       </c>
       <c r="L15">
-        <v>0.8897193760395794</v>
+        <v>0.8897193760395297</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>2.999845386211746</v>
       </c>
       <c r="C16">
-        <v>0.485292083518118</v>
+        <v>0.4852920835184875</v>
       </c>
       <c r="D16">
-        <v>0.3007979869614417</v>
+        <v>0.3007979869611717</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.839565057903201</v>
+        <v>9.839565057903286</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2083393466226866</v>
+        <v>0.2083393466227008</v>
       </c>
       <c r="J16">
-        <v>0.7504667158532925</v>
+        <v>0.7504667158533636</v>
       </c>
       <c r="K16">
-        <v>0.1978790164471604</v>
+        <v>0.1978790164471107</v>
       </c>
       <c r="L16">
-        <v>0.8236793852528947</v>
+        <v>0.8236793852529374</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.853480746526145</v>
+        <v>2.853480746526088</v>
       </c>
       <c r="C17">
-        <v>0.4611212437413315</v>
+        <v>0.4611212437422409</v>
       </c>
       <c r="D17">
-        <v>0.288271476685253</v>
+        <v>0.2882714766859777</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.422286051711154</v>
+        <v>9.422286051711126</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2000696520351894</v>
+        <v>0.2000696520352285</v>
       </c>
       <c r="J17">
-        <v>0.7133433225183836</v>
+        <v>0.7133433225183907</v>
       </c>
       <c r="K17">
-        <v>0.1886524360864001</v>
+        <v>0.188652436086393</v>
       </c>
       <c r="L17">
         <v>0.7840628718197706</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.770410856119838</v>
+        <v>2.770410856119895</v>
       </c>
       <c r="C18">
         <v>0.447426048106621</v>
       </c>
       <c r="D18">
-        <v>0.2811535932535207</v>
+        <v>0.2811535932535492</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.185064209341817</v>
+        <v>9.18506420934176</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1953690958105341</v>
+        <v>0.1953690958105234</v>
       </c>
       <c r="J18">
-        <v>0.6922810094429011</v>
+        <v>0.6922810094429224</v>
       </c>
       <c r="K18">
-        <v>0.1834146304358057</v>
+        <v>0.1834146304357773</v>
       </c>
       <c r="L18">
-        <v>0.7615759385451142</v>
+        <v>0.7615759385451497</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.742466198250725</v>
+        <v>2.742466198250895</v>
       </c>
       <c r="C19">
-        <v>0.4428226125276353</v>
+        <v>0.4428226125271806</v>
       </c>
       <c r="D19">
-        <v>0.2787577016863594</v>
+        <v>0.2787577016865299</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.105198027051841</v>
+        <v>9.10519802705187</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.193786677385269</v>
+        <v>0.1937866773852122</v>
       </c>
       <c r="J19">
-        <v>0.6851967947944146</v>
+        <v>0.6851967947943791</v>
       </c>
       <c r="K19">
-        <v>0.1816524607706071</v>
+        <v>0.1816524607706143</v>
       </c>
       <c r="L19">
-        <v>0.7540109993489921</v>
+        <v>0.7540109993490134</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.868943640236296</v>
+        <v>2.868943640236353</v>
       </c>
       <c r="C20">
-        <v>0.4636723221833847</v>
+        <v>0.4636723221837826</v>
       </c>
       <c r="D20">
-        <v>0.2895957327569789</v>
+        <v>0.2895957327571494</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.466411624790879</v>
+        <v>9.46641162479105</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2009440631503487</v>
+        <v>0.2009440631504127</v>
       </c>
       <c r="J20">
-        <v>0.7172644960485002</v>
+        <v>0.7172644960484931</v>
       </c>
       <c r="K20">
-        <v>0.1896273260988082</v>
+        <v>0.1896273260988224</v>
       </c>
       <c r="L20">
-        <v>0.78824847906575</v>
+        <v>0.7882484790657713</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.30802618094026</v>
+        <v>3.308026180940317</v>
       </c>
       <c r="C21">
-        <v>0.5363665969377109</v>
+        <v>0.5363665969381657</v>
       </c>
       <c r="D21">
-        <v>0.3271174397496708</v>
+        <v>0.3271174397498697</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2257003191680802</v>
+        <v>0.2257003191681051</v>
       </c>
       <c r="J21">
-        <v>0.8286893849930692</v>
+        <v>0.8286893849931261</v>
       </c>
       <c r="K21">
-        <v>0.2172952331601863</v>
+        <v>0.217295233160236</v>
       </c>
       <c r="L21">
         <v>0.9070732862721016</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.607524891331934</v>
+        <v>3.607524891332162</v>
       </c>
       <c r="C22">
-        <v>0.5862560983734397</v>
+        <v>0.5862560983729281</v>
       </c>
       <c r="D22">
-        <v>0.3526312668247726</v>
+        <v>0.3526312668254548</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.56291078659638</v>
+        <v>11.56291078659626</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0.2425057988704111</v>
       </c>
       <c r="J22">
-        <v>0.9047880273762416</v>
+        <v>0.9047880273762274</v>
       </c>
       <c r="K22">
-        <v>0.23614690996218</v>
+        <v>0.2361469099621374</v>
       </c>
       <c r="L22">
-        <v>0.9880840405662994</v>
+        <v>0.988084040566342</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>3.446388992627931</v>
       </c>
       <c r="C23">
-        <v>0.5593822869945484</v>
+        <v>0.5593822869940368</v>
       </c>
       <c r="D23">
-        <v>0.3389116774659584</v>
+        <v>0.3389116774661716</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.1073399538011</v>
+        <v>11.10733995380122</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2334722541903602</v>
+        <v>0.2334722541903389</v>
       </c>
       <c r="J23">
-        <v>0.8638353895564919</v>
+        <v>0.8638353895564066</v>
       </c>
       <c r="K23">
-        <v>0.2260067257268474</v>
+        <v>0.2260067257268048</v>
       </c>
       <c r="L23">
-        <v>0.9445032810227474</v>
+        <v>0.9445032810227545</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.861949537948988</v>
+        <v>2.861949537948476</v>
       </c>
       <c r="C24">
         <v>0.4625183592173414</v>
       </c>
       <c r="D24">
-        <v>0.2889967778794613</v>
+        <v>0.2889967778792339</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.446454180819245</v>
+        <v>9.446454180819273</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2005485756232659</v>
+        <v>0.2005485756232908</v>
       </c>
       <c r="J24">
-        <v>0.7154908671916331</v>
+        <v>0.7154908671916544</v>
       </c>
       <c r="K24">
-        <v>0.1891863722265441</v>
+        <v>0.1891863722265796</v>
       </c>
       <c r="L24">
-        <v>0.7863552725375555</v>
+        <v>0.7863552725375413</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.27320760459645</v>
+        <v>2.273207604596394</v>
       </c>
       <c r="C25">
-        <v>0.3657652303116947</v>
+        <v>0.36576523031124</v>
       </c>
       <c r="D25">
-        <v>0.2384015688892021</v>
+        <v>0.2384015688889747</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.758981919016577</v>
+        <v>7.758981919016605</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.167125752477034</v>
+        <v>0.1671257524770304</v>
       </c>
       <c r="J25">
         <v>0.5663124367310814</v>
       </c>
       <c r="K25">
-        <v>0.1520526982254786</v>
+        <v>0.1520526982255035</v>
       </c>
       <c r="L25">
-        <v>0.6269593389310586</v>
+        <v>0.626959338931087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.864690319971743</v>
+        <v>1.864690319971402</v>
       </c>
       <c r="C2">
-        <v>0.2989777502160678</v>
+        <v>0.2989777502157551</v>
       </c>
       <c r="D2">
-        <v>0.2030304536980765</v>
+        <v>0.2030304536983607</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1437745699833854</v>
+        <v>0.1437745699834032</v>
       </c>
       <c r="J2">
-        <v>0.462908604012938</v>
+        <v>0.4629086040129167</v>
       </c>
       <c r="K2">
-        <v>0.1262845041348477</v>
+        <v>0.1262845041349188</v>
       </c>
       <c r="L2">
         <v>0.5163504952346116</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.599116709937903</v>
+        <v>1.599116709937988</v>
       </c>
       <c r="C3">
-        <v>0.2556353512251661</v>
+        <v>0.2556353512254788</v>
       </c>
       <c r="D3">
-        <v>0.1798705170811985</v>
+        <v>0.1798705170811701</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.8064707682706</v>
+        <v>5.806470768270628</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1285177303655622</v>
+        <v>0.1285177303655765</v>
       </c>
       <c r="J3">
-        <v>0.3957096552177148</v>
+        <v>0.3957096552177219</v>
       </c>
       <c r="K3">
-        <v>0.10954437265206</v>
+        <v>0.1095443726520919</v>
       </c>
       <c r="L3">
         <v>0.4444643936652852</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.440438006629734</v>
+        <v>1.440438006630046</v>
       </c>
       <c r="C4">
-        <v>0.2297369101872562</v>
+        <v>0.2297369101872704</v>
       </c>
       <c r="D4">
-        <v>0.165950021172165</v>
+        <v>0.1659500211724207</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.343065447815121</v>
+        <v>5.343065447815178</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1193703104811981</v>
+        <v>0.1193703104812016</v>
       </c>
       <c r="J4">
-        <v>0.3555577379245562</v>
+        <v>0.3555577379245207</v>
       </c>
       <c r="K4">
-        <v>0.09955122183005827</v>
+        <v>0.09955122183004761</v>
       </c>
       <c r="L4">
-        <v>0.4015288952848266</v>
+        <v>0.4015288952848337</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.376723224885069</v>
+        <v>1.37672322488487</v>
       </c>
       <c r="C5">
-        <v>0.2193322731835536</v>
+        <v>0.2193322731838663</v>
       </c>
       <c r="D5">
-        <v>0.1603394752044665</v>
+        <v>0.1603394752043528</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.156514127728116</v>
+        <v>5.156514127728087</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1156901591683344</v>
+        <v>0.1156901591683592</v>
       </c>
       <c r="J5">
-        <v>0.3394335457246527</v>
+        <v>0.3394335457246669</v>
       </c>
       <c r="K5">
-        <v>0.09554131694882884</v>
+        <v>0.09554131694885726</v>
       </c>
       <c r="L5">
-        <v>0.3842937027047242</v>
+        <v>0.3842937027047171</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.366196490080455</v>
+        <v>1.366196490080512</v>
       </c>
       <c r="C6">
-        <v>0.2176127787156332</v>
+        <v>0.2176127787154485</v>
       </c>
       <c r="D6">
-        <v>0.1594112420214486</v>
+        <v>0.1594112420213492</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.12566486516036</v>
+        <v>5.125664865160303</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1150817251897749</v>
+        <v>0.1150817251897926</v>
       </c>
       <c r="J6">
-        <v>0.3367694056833415</v>
+        <v>0.336769405683377</v>
       </c>
       <c r="K6">
-        <v>0.09487898751048007</v>
+        <v>0.09487898751050139</v>
       </c>
       <c r="L6">
-        <v>0.3814464783435341</v>
+        <v>0.3814464783435199</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.43957508026304</v>
+        <v>1.439575080263182</v>
       </c>
       <c r="C7">
-        <v>0.2295960231925989</v>
+        <v>0.2295960231930394</v>
       </c>
       <c r="D7">
-        <v>0.1658741201638207</v>
+        <v>0.165874120163565</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.340540775659548</v>
+        <v>5.340540775659463</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1193204962417767</v>
+        <v>0.1193204962418228</v>
       </c>
       <c r="J7">
-        <v>0.355339368224179</v>
+        <v>0.3553393682241719</v>
       </c>
       <c r="K7">
-        <v>0.09949690193699823</v>
+        <v>0.09949690193698046</v>
       </c>
       <c r="L7">
-        <v>0.4012954483434896</v>
+        <v>0.4012954483435109</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.772112087138453</v>
+        <v>1.77211208713814</v>
       </c>
       <c r="C8">
-        <v>0.2838657119134496</v>
+        <v>0.2838657119131369</v>
       </c>
       <c r="D8">
-        <v>0.1949742835416686</v>
+        <v>0.1949742835417538</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.309903601426868</v>
+        <v>6.309903601426811</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1384632557463625</v>
+        <v>0.1384632557463377</v>
       </c>
       <c r="J8">
-        <v>0.4394823775697105</v>
+        <v>0.4394823775697461</v>
       </c>
       <c r="K8">
-        <v>0.1204473194937492</v>
+        <v>0.1204473194937634</v>
       </c>
       <c r="L8">
         <v>0.4912883411973397</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.467003796958863</v>
+        <v>2.467003796958977</v>
       </c>
       <c r="C9">
-        <v>0.3975359934975415</v>
+        <v>0.39753599349757</v>
       </c>
       <c r="D9">
-        <v>0.2550982130472903</v>
+        <v>0.2550982130470629</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.316132386589572</v>
+        <v>8.316132386589487</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1781566897088247</v>
+        <v>0.1781566897088531</v>
       </c>
       <c r="J9">
-        <v>0.6153932845370633</v>
+        <v>0.6153932845370917</v>
       </c>
       <c r="K9">
-        <v>0.1642783195615749</v>
+        <v>0.1642783195615571</v>
       </c>
       <c r="L9">
-        <v>0.6794326602920151</v>
+        <v>0.6794326602919725</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>3.016705765671304</v>
       </c>
       <c r="C10">
-        <v>0.4880798683716421</v>
+        <v>0.4880798683715852</v>
       </c>
       <c r="D10">
-        <v>0.3022398125328181</v>
+        <v>0.302239812533017</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2092909543985044</v>
+        <v>0.2092909543984867</v>
       </c>
       <c r="J10">
-        <v>0.7547441998043425</v>
+        <v>0.7547441998043283</v>
       </c>
       <c r="K10">
-        <v>0.1989416713119994</v>
+        <v>0.1989416713119851</v>
       </c>
       <c r="L10">
-        <v>0.8282426013759974</v>
+        <v>0.8282426013759547</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.278888361253223</v>
+        <v>3.278888361252712</v>
       </c>
       <c r="C11">
-        <v>0.5315266100125768</v>
+        <v>0.53152661001306</v>
       </c>
       <c r="D11">
-        <v>0.3246320081642722</v>
+        <v>0.3246320081640164</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.224061849017378</v>
+        <v>0.2240618490173567</v>
       </c>
       <c r="J11">
-        <v>0.8212901503826728</v>
+        <v>0.8212901503826657</v>
       </c>
       <c r="K11">
-        <v>0.2154601958194036</v>
+        <v>0.2154601958193538</v>
       </c>
       <c r="L11">
-        <v>0.899189973984484</v>
+        <v>0.8991899739844911</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.380282753765869</v>
+        <v>3.380282753766039</v>
       </c>
       <c r="C12">
-        <v>0.5483791756572316</v>
+        <v>0.54837917565726</v>
       </c>
       <c r="D12">
-        <v>0.333278312255473</v>
+        <v>0.3332783122555441</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.92015219730888</v>
+        <v>10.92015219730871</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2297607609283432</v>
+        <v>0.2297607609283503</v>
       </c>
       <c r="J12">
-        <v>0.8470413869183062</v>
+        <v>0.8470413869183346</v>
       </c>
       <c r="K12">
-        <v>0.2218450804755747</v>
+        <v>0.2218450804755818</v>
       </c>
       <c r="L12">
         <v>0.9266211103054616</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.358345116724138</v>
+        <v>3.35834511672391</v>
       </c>
       <c r="C13">
-        <v>0.5447305072436848</v>
+        <v>0.5447305072435711</v>
       </c>
       <c r="D13">
-        <v>0.331408205073572</v>
+        <v>0.3314082050739131</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.85799570168791</v>
+        <v>10.85799570168814</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2285283826213629</v>
+        <v>0.2285283826213771</v>
       </c>
       <c r="J13">
-        <v>0.84146909215535</v>
+        <v>0.8414690921552861</v>
       </c>
       <c r="K13">
-        <v>0.2204638226393953</v>
+        <v>0.2204638226393669</v>
       </c>
       <c r="L13">
-        <v>0.9206864556213787</v>
+        <v>0.9206864556213361</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.287185458355111</v>
+        <v>3.287185458355452</v>
       </c>
       <c r="C14">
-        <v>0.5329045728150277</v>
+        <v>0.532904572814914</v>
       </c>
       <c r="D14">
-        <v>0.3253398047154832</v>
+        <v>0.3253398047154406</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.65624807985313</v>
+        <v>10.6562480798533</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2245284722452539</v>
+        <v>0.2245284722452396</v>
       </c>
       <c r="J14">
-        <v>0.823397033083296</v>
+        <v>0.8233970330832889</v>
       </c>
       <c r="K14">
-        <v>0.2159827457372572</v>
+        <v>0.2159827457372288</v>
       </c>
       <c r="L14">
-        <v>0.9014348068812552</v>
+        <v>0.9014348068812907</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.243885227366093</v>
+        <v>3.243885227365865</v>
       </c>
       <c r="C15">
-        <v>0.5257154663373456</v>
+        <v>0.5257154663372887</v>
       </c>
       <c r="D15">
-        <v>0.3216454710479439</v>
+        <v>0.3216454710478729</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.53338886817301</v>
+        <v>10.53338886817295</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.22209274305402</v>
+        <v>0.2220927430540556</v>
       </c>
       <c r="J15">
-        <v>0.8124024589099079</v>
+        <v>0.8124024589098937</v>
       </c>
       <c r="K15">
         <v>0.2132555608856421</v>
       </c>
       <c r="L15">
-        <v>0.8897193760395297</v>
+        <v>0.8897193760395794</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>2.999845386211746</v>
       </c>
       <c r="C16">
-        <v>0.4852920835184875</v>
+        <v>0.485292083518118</v>
       </c>
       <c r="D16">
-        <v>0.3007979869611717</v>
+        <v>0.3007979869614417</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.839565057903286</v>
+        <v>9.839565057903201</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2083393466227008</v>
+        <v>0.2083393466226866</v>
       </c>
       <c r="J16">
-        <v>0.7504667158533636</v>
+        <v>0.7504667158532925</v>
       </c>
       <c r="K16">
-        <v>0.1978790164471107</v>
+        <v>0.1978790164471604</v>
       </c>
       <c r="L16">
-        <v>0.8236793852529374</v>
+        <v>0.8236793852528947</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.853480746526088</v>
+        <v>2.853480746526145</v>
       </c>
       <c r="C17">
-        <v>0.4611212437422409</v>
+        <v>0.4611212437413315</v>
       </c>
       <c r="D17">
-        <v>0.2882714766859777</v>
+        <v>0.288271476685253</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.422286051711126</v>
+        <v>9.422286051711154</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2000696520352285</v>
+        <v>0.2000696520351894</v>
       </c>
       <c r="J17">
-        <v>0.7133433225183907</v>
+        <v>0.7133433225183836</v>
       </c>
       <c r="K17">
-        <v>0.188652436086393</v>
+        <v>0.1886524360864001</v>
       </c>
       <c r="L17">
         <v>0.7840628718197706</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.770410856119895</v>
+        <v>2.770410856119838</v>
       </c>
       <c r="C18">
         <v>0.447426048106621</v>
       </c>
       <c r="D18">
-        <v>0.2811535932535492</v>
+        <v>0.2811535932535207</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.18506420934176</v>
+        <v>9.185064209341817</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1953690958105234</v>
+        <v>0.1953690958105341</v>
       </c>
       <c r="J18">
-        <v>0.6922810094429224</v>
+        <v>0.6922810094429011</v>
       </c>
       <c r="K18">
-        <v>0.1834146304357773</v>
+        <v>0.1834146304358057</v>
       </c>
       <c r="L18">
-        <v>0.7615759385451497</v>
+        <v>0.7615759385451142</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.742466198250895</v>
+        <v>2.742466198250725</v>
       </c>
       <c r="C19">
-        <v>0.4428226125271806</v>
+        <v>0.4428226125276353</v>
       </c>
       <c r="D19">
-        <v>0.2787577016865299</v>
+        <v>0.2787577016863594</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.10519802705187</v>
+        <v>9.105198027051841</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1937866773852122</v>
+        <v>0.193786677385269</v>
       </c>
       <c r="J19">
-        <v>0.6851967947943791</v>
+        <v>0.6851967947944146</v>
       </c>
       <c r="K19">
-        <v>0.1816524607706143</v>
+        <v>0.1816524607706071</v>
       </c>
       <c r="L19">
-        <v>0.7540109993490134</v>
+        <v>0.7540109993489921</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.868943640236353</v>
+        <v>2.868943640236296</v>
       </c>
       <c r="C20">
-        <v>0.4636723221837826</v>
+        <v>0.4636723221833847</v>
       </c>
       <c r="D20">
-        <v>0.2895957327571494</v>
+        <v>0.2895957327569789</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.46641162479105</v>
+        <v>9.466411624790879</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2009440631504127</v>
+        <v>0.2009440631503487</v>
       </c>
       <c r="J20">
-        <v>0.7172644960484931</v>
+        <v>0.7172644960485002</v>
       </c>
       <c r="K20">
-        <v>0.1896273260988224</v>
+        <v>0.1896273260988082</v>
       </c>
       <c r="L20">
-        <v>0.7882484790657713</v>
+        <v>0.78824847906575</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.308026180940317</v>
+        <v>3.30802618094026</v>
       </c>
       <c r="C21">
-        <v>0.5363665969381657</v>
+        <v>0.5363665969377109</v>
       </c>
       <c r="D21">
-        <v>0.3271174397498697</v>
+        <v>0.3271174397496708</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2257003191681051</v>
+        <v>0.2257003191680802</v>
       </c>
       <c r="J21">
-        <v>0.8286893849931261</v>
+        <v>0.8286893849930692</v>
       </c>
       <c r="K21">
-        <v>0.217295233160236</v>
+        <v>0.2172952331601863</v>
       </c>
       <c r="L21">
         <v>0.9070732862721016</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.607524891332162</v>
+        <v>3.607524891331934</v>
       </c>
       <c r="C22">
-        <v>0.5862560983729281</v>
+        <v>0.5862560983734397</v>
       </c>
       <c r="D22">
-        <v>0.3526312668254548</v>
+        <v>0.3526312668247726</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.56291078659626</v>
+        <v>11.56291078659638</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0.2425057988704111</v>
       </c>
       <c r="J22">
-        <v>0.9047880273762274</v>
+        <v>0.9047880273762416</v>
       </c>
       <c r="K22">
-        <v>0.2361469099621374</v>
+        <v>0.23614690996218</v>
       </c>
       <c r="L22">
-        <v>0.988084040566342</v>
+        <v>0.9880840405662994</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>3.446388992627931</v>
       </c>
       <c r="C23">
-        <v>0.5593822869940368</v>
+        <v>0.5593822869945484</v>
       </c>
       <c r="D23">
-        <v>0.3389116774661716</v>
+        <v>0.3389116774659584</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.10733995380122</v>
+        <v>11.1073399538011</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2334722541903389</v>
+        <v>0.2334722541903602</v>
       </c>
       <c r="J23">
-        <v>0.8638353895564066</v>
+        <v>0.8638353895564919</v>
       </c>
       <c r="K23">
-        <v>0.2260067257268048</v>
+        <v>0.2260067257268474</v>
       </c>
       <c r="L23">
-        <v>0.9445032810227545</v>
+        <v>0.9445032810227474</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.861949537948476</v>
+        <v>2.861949537948988</v>
       </c>
       <c r="C24">
         <v>0.4625183592173414</v>
       </c>
       <c r="D24">
-        <v>0.2889967778792339</v>
+        <v>0.2889967778794613</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.446454180819273</v>
+        <v>9.446454180819245</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2005485756232908</v>
+        <v>0.2005485756232659</v>
       </c>
       <c r="J24">
-        <v>0.7154908671916544</v>
+        <v>0.7154908671916331</v>
       </c>
       <c r="K24">
-        <v>0.1891863722265796</v>
+        <v>0.1891863722265441</v>
       </c>
       <c r="L24">
-        <v>0.7863552725375413</v>
+        <v>0.7863552725375555</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.273207604596394</v>
+        <v>2.27320760459645</v>
       </c>
       <c r="C25">
-        <v>0.36576523031124</v>
+        <v>0.3657652303116947</v>
       </c>
       <c r="D25">
-        <v>0.2384015688889747</v>
+        <v>0.2384015688892021</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.758981919016605</v>
+        <v>7.758981919016577</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1671257524770304</v>
+        <v>0.167125752477034</v>
       </c>
       <c r="J25">
         <v>0.5663124367310814</v>
       </c>
       <c r="K25">
-        <v>0.1520526982255035</v>
+        <v>0.1520526982254786</v>
       </c>
       <c r="L25">
-        <v>0.626959338931087</v>
+        <v>0.6269593389310586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.864690319971402</v>
+        <v>1.848943269363588</v>
       </c>
       <c r="C2">
-        <v>0.2989777502157551</v>
+        <v>0.2895430530656</v>
       </c>
       <c r="D2">
-        <v>0.2030304536983607</v>
+        <v>0.2070816245354479</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.578608566850932</v>
+        <v>6.59999030639284</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008000898414731179</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1437745699834032</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4629086040129167</v>
+        <v>0.1425688316850149</v>
       </c>
       <c r="K2">
-        <v>0.1262845041349188</v>
+        <v>0.457206712032054</v>
       </c>
       <c r="L2">
-        <v>0.5163504952346116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1257875729867663</v>
+      </c>
+      <c r="M2">
+        <v>0.5138355133777637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.599116709937988</v>
+        <v>1.586957932025456</v>
       </c>
       <c r="C3">
-        <v>0.2556353512254788</v>
+        <v>0.2471568213651238</v>
       </c>
       <c r="D3">
-        <v>0.1798705170811701</v>
+        <v>0.1840366733778467</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.806470768270628</v>
+        <v>5.833518790816981</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008106027694773381</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1285177303655765</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3957096552177219</v>
+        <v>0.1273623063093936</v>
       </c>
       <c r="K3">
-        <v>0.1095443726520919</v>
+        <v>0.3910397614387549</v>
       </c>
       <c r="L3">
-        <v>0.4444643936652852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1090823189449921</v>
+      </c>
+      <c r="M3">
+        <v>0.4425853325466349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.440438006630046</v>
+        <v>1.430478122136179</v>
       </c>
       <c r="C4">
-        <v>0.2297369101872704</v>
+        <v>0.2218468452491038</v>
       </c>
       <c r="D4">
-        <v>0.1659500211724207</v>
+        <v>0.1701813828499752</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.343065447815178</v>
+        <v>5.373497831465585</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008171883417226946</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1193703104812016</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3555577379245207</v>
+        <v>0.1182430871035827</v>
       </c>
       <c r="K4">
-        <v>0.09955122183004761</v>
+        <v>0.3515213523694385</v>
       </c>
       <c r="L4">
-        <v>0.4015288952848337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.09910776018873335</v>
+      </c>
+      <c r="M4">
+        <v>0.4000347273207012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.37672322488487</v>
+        <v>1.367660754820747</v>
       </c>
       <c r="C5">
-        <v>0.2193322731838663</v>
+        <v>0.2116829588201909</v>
       </c>
       <c r="D5">
-        <v>0.1603394752043528</v>
+        <v>0.164596243924052</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.156514127728087</v>
+        <v>5.188307397708172</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008199078696980936</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1156901591683592</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3394335457246669</v>
+        <v>0.1145738422738027</v>
       </c>
       <c r="K5">
-        <v>0.09554131694885726</v>
+        <v>0.3356559633537231</v>
       </c>
       <c r="L5">
-        <v>0.3842937027047171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.09510481453293096</v>
+      </c>
+      <c r="M5">
+        <v>0.3829555317756927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.366196490080512</v>
+        <v>1.35728318116756</v>
       </c>
       <c r="C6">
-        <v>0.2176127787154485</v>
+        <v>0.2100035139611549</v>
       </c>
       <c r="D6">
-        <v>0.1594112420213492</v>
+        <v>0.1636721643254617</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.125664865160303</v>
+        <v>5.157683153911393</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008203616932476177</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1150817251897926</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.336769405683377</v>
+        <v>0.1139671863711129</v>
       </c>
       <c r="K6">
-        <v>0.09487898751050139</v>
+        <v>0.3330348543335759</v>
       </c>
       <c r="L6">
-        <v>0.3814464783435199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.0944436058288538</v>
+      </c>
+      <c r="M6">
+        <v>0.3801341738333264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.439575080263182</v>
+        <v>1.429627290186914</v>
       </c>
       <c r="C7">
-        <v>0.2295960231930394</v>
+        <v>0.221709200535642</v>
       </c>
       <c r="D7">
-        <v>0.165874120163565</v>
+        <v>0.1701058289716144</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.340540775659463</v>
+        <v>5.370991579879956</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008172248694567999</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1193204962418228</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3553393682241719</v>
+        <v>0.118193422212304</v>
       </c>
       <c r="K7">
-        <v>0.09949690193698046</v>
+        <v>0.3513064695445465</v>
       </c>
       <c r="L7">
-        <v>0.4012954483435109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.09905353653725868</v>
+      </c>
+      <c r="M7">
+        <v>0.3998033869831517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.77211208713814</v>
+        <v>1.757604748598254</v>
       </c>
       <c r="C8">
-        <v>0.2838657119131369</v>
+        <v>0.2747608054740454</v>
       </c>
       <c r="D8">
-        <v>0.1949742835417538</v>
+        <v>0.1990663461587303</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.309903601426811</v>
+        <v>6.333262348842169</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008036895087555325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1384632557463377</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4394823775697461</v>
+        <v>0.1372754841525783</v>
       </c>
       <c r="K8">
-        <v>0.1204473194937634</v>
+        <v>0.4341367888331931</v>
       </c>
       <c r="L8">
-        <v>0.4912883411973397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1199630605676631</v>
+      </c>
+      <c r="M8">
+        <v>0.4889941369516748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.467003796958977</v>
+        <v>2.443388900058665</v>
       </c>
       <c r="C9">
-        <v>0.39753599349757</v>
+        <v>0.3860207954380712</v>
       </c>
       <c r="D9">
-        <v>0.2550982130470629</v>
+        <v>0.2588631654946028</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.316132386589487</v>
+        <v>8.324530353872319</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007780282084060708</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1781566897088531</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6153932845370917</v>
+        <v>0.1768235295064393</v>
       </c>
       <c r="K9">
-        <v>0.1642783195615571</v>
+        <v>0.607435550457545</v>
       </c>
       <c r="L9">
-        <v>0.6794326602919725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1636863391458228</v>
+      </c>
+      <c r="M9">
+        <v>0.6754913287563298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.016705765671304</v>
+        <v>2.986069006381854</v>
       </c>
       <c r="C10">
-        <v>0.4880798683715852</v>
+        <v>0.4747242397448019</v>
       </c>
       <c r="D10">
-        <v>0.302239812533017</v>
+        <v>0.3057137841323936</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.887577142156033</v>
+        <v>9.883818394582107</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007594617871768961</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2092909543984867</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7547441998043283</v>
+        <v>0.207826162076433</v>
       </c>
       <c r="K10">
-        <v>0.1989416713119851</v>
+        <v>0.7447802766514116</v>
       </c>
       <c r="L10">
-        <v>0.8282426013759547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1982446419650117</v>
+      </c>
+      <c r="M10">
+        <v>0.8229935388906071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.278888361252712</v>
+        <v>3.244916739389396</v>
       </c>
       <c r="C11">
-        <v>0.53152661001306</v>
+        <v>0.5173017377228177</v>
       </c>
       <c r="D11">
-        <v>0.3246320081640164</v>
+        <v>0.3279571402452319</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.6327117599767</v>
+        <v>10.62301301581681</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007510096217792338</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2240618490173567</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8212901503826657</v>
+        <v>0.2225291371843383</v>
       </c>
       <c r="K11">
-        <v>0.2154601958193538</v>
+        <v>0.8103755222460762</v>
       </c>
       <c r="L11">
-        <v>0.8991899739844911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2147069365231502</v>
+      </c>
+      <c r="M11">
+        <v>0.8933089626762509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.380282753766039</v>
+        <v>3.345020497998803</v>
       </c>
       <c r="C12">
-        <v>0.54837917565726</v>
+        <v>0.5338186746431575</v>
       </c>
       <c r="D12">
-        <v>0.3332783122555441</v>
+        <v>0.3365441081360387</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.92015219730871</v>
+        <v>10.9081278804037</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007478012024627561</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2297607609283503</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8470413869183346</v>
+        <v>0.2282008782342757</v>
       </c>
       <c r="K12">
-        <v>0.2218450804755818</v>
+        <v>0.835759160431941</v>
       </c>
       <c r="L12">
-        <v>0.9266211103054616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2210689957683272</v>
+      </c>
+      <c r="M12">
+        <v>0.9204937041871304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.35834511672391</v>
+        <v>3.323362200104384</v>
       </c>
       <c r="C13">
-        <v>0.5447305072435711</v>
+        <v>0.5302426122358384</v>
       </c>
       <c r="D13">
-        <v>0.3314082050739131</v>
+        <v>0.3346869236740417</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.85799570168814</v>
+        <v>10.84647595221105</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007484926614798682</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2285283826213771</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8414690921552861</v>
+        <v>0.2269744217496452</v>
       </c>
       <c r="K13">
-        <v>0.2204638226393669</v>
+        <v>0.8302664115126603</v>
       </c>
       <c r="L13">
-        <v>0.9206864556213361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2196927279680025</v>
+      </c>
+      <c r="M13">
+        <v>0.9146124634241843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.287185458355452</v>
+        <v>3.25310826269299</v>
       </c>
       <c r="C14">
-        <v>0.532904572814914</v>
+        <v>0.5186522300838874</v>
       </c>
       <c r="D14">
-        <v>0.3253398047154406</v>
+        <v>0.3286601188007552</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.6562480798533</v>
+        <v>10.64635965202211</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007507458626155638</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2245284722452396</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8233970330832889</v>
+        <v>0.2229935561035106</v>
       </c>
       <c r="K14">
-        <v>0.2159827457372288</v>
+        <v>0.8124523285030847</v>
       </c>
       <c r="L14">
-        <v>0.9014348068812907</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2152276414288892</v>
+      </c>
+      <c r="M14">
+        <v>0.8955336783546883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.243885227365865</v>
+        <v>3.210358934378746</v>
       </c>
       <c r="C15">
-        <v>0.5257154663372887</v>
+        <v>0.5116065009336239</v>
       </c>
       <c r="D15">
-        <v>0.3216454710478729</v>
+        <v>0.3249908556595926</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.53338886817295</v>
+        <v>10.5244891568496</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007521247766100684</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2220927430540556</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8124024589098937</v>
+        <v>0.2205692932876637</v>
       </c>
       <c r="K15">
-        <v>0.2132555608856421</v>
+        <v>0.8016147122008874</v>
       </c>
       <c r="L15">
-        <v>0.8897193760395794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2125100406457889</v>
+      </c>
+      <c r="M15">
+        <v>0.8839231481249499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.999845386211746</v>
+        <v>2.969423133681971</v>
       </c>
       <c r="C16">
-        <v>0.485292083518118</v>
+        <v>0.4719924689835011</v>
       </c>
       <c r="D16">
-        <v>0.3007979869614417</v>
+        <v>0.3042813057791847</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.839565057903201</v>
+        <v>9.836184874268326</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007600134709330496</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2083393466226866</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7504667158532925</v>
+        <v>0.206878807685257</v>
       </c>
       <c r="K16">
-        <v>0.1978790164471604</v>
+        <v>0.7405639885595079</v>
       </c>
       <c r="L16">
-        <v>0.8236793852528947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1971854666621837</v>
+      </c>
+      <c r="M16">
+        <v>0.8184707359704433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.853480746526145</v>
+        <v>2.824921890955068</v>
       </c>
       <c r="C17">
-        <v>0.4611212437413315</v>
+        <v>0.4483087533234595</v>
       </c>
       <c r="D17">
-        <v>0.288271476685253</v>
+        <v>0.2918348098115189</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.422286051711154</v>
+        <v>9.422175936823606</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007648468200410656</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2000696520351894</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7133433225183836</v>
+        <v>0.1986454603871231</v>
       </c>
       <c r="K17">
-        <v>0.1886524360864001</v>
+        <v>0.7039724286005224</v>
       </c>
       <c r="L17">
-        <v>0.7840628718197706</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1879884050784639</v>
+      </c>
+      <c r="M17">
+        <v>0.7792040737869002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.770410856119838</v>
+        <v>2.742911093652879</v>
       </c>
       <c r="C18">
-        <v>0.447426048106621</v>
+        <v>0.4348908591118459</v>
       </c>
       <c r="D18">
-        <v>0.2811535932535207</v>
+        <v>0.2847614420465732</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.185064209341817</v>
+        <v>9.186797626252968</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007676267260824458</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1953690958105341</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6922810094429011</v>
+        <v>0.1939650749101851</v>
       </c>
       <c r="K18">
-        <v>0.1834146304358057</v>
+        <v>0.683212580633807</v>
       </c>
       <c r="L18">
-        <v>0.7615759385451142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1827668064806929</v>
+      </c>
+      <c r="M18">
+        <v>0.7569150057930827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.742466198250725</v>
+        <v>2.715323049436961</v>
       </c>
       <c r="C19">
-        <v>0.4428226125276353</v>
+        <v>0.4303808679137546</v>
       </c>
       <c r="D19">
-        <v>0.2787577016863594</v>
+        <v>0.282380380060772</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.105198027051841</v>
+        <v>9.107549681034669</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007685681262369813</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.193786677385269</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6851967947944146</v>
+        <v>0.1923893674870385</v>
       </c>
       <c r="K19">
-        <v>0.1816524607706071</v>
+        <v>0.6762302422282787</v>
       </c>
       <c r="L19">
-        <v>0.7540109993489921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1810100001345205</v>
+      </c>
+      <c r="M19">
+        <v>0.7494165299558304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.868943640236296</v>
+        <v>2.840187784543502</v>
       </c>
       <c r="C20">
-        <v>0.4636723221833847</v>
+        <v>0.4508082866104814</v>
       </c>
       <c r="D20">
-        <v>0.2895957327569789</v>
+        <v>0.2931507080445499</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.466411624790879</v>
+        <v>9.465957380280031</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007643323588693489</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2009440631503487</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7172644960485002</v>
+        <v>0.1995160802686122</v>
       </c>
       <c r="K20">
-        <v>0.1896273260988082</v>
+        <v>0.7078373563380254</v>
       </c>
       <c r="L20">
-        <v>0.78824847906575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1889602346398718</v>
+      </c>
+      <c r="M20">
+        <v>0.7833527978569137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.30802618094026</v>
+        <v>3.27368377753919</v>
       </c>
       <c r="C21">
-        <v>0.5363665969377109</v>
+        <v>0.5220452594641074</v>
       </c>
       <c r="D21">
-        <v>0.3271174397496708</v>
+        <v>0.3304256225504787</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.71535493030188</v>
+        <v>10.70498957244973</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007500843149517919</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2257003191680802</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8286893849930692</v>
+        <v>0.2241598512547753</v>
       </c>
       <c r="K21">
-        <v>0.2172952331601863</v>
+        <v>0.8176691320382332</v>
       </c>
       <c r="L21">
-        <v>0.9070732862721016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2165354766572634</v>
+      </c>
+      <c r="M21">
+        <v>0.9011215922512434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.607524891331934</v>
+        <v>3.569364294828858</v>
       </c>
       <c r="C22">
-        <v>0.5862560983734397</v>
+        <v>0.5709434062596586</v>
       </c>
       <c r="D22">
-        <v>0.3526312668247726</v>
+        <v>0.3557604178513571</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.56291078659638</v>
+        <v>11.54561211903962</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007407229539270056</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2425057988704111</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9047880273762416</v>
+        <v>0.2408831581224575</v>
       </c>
       <c r="K22">
-        <v>0.23614690996218</v>
+        <v>0.8926809513618394</v>
       </c>
       <c r="L22">
-        <v>0.9880840405662994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2353174425996514</v>
+      </c>
+      <c r="M22">
+        <v>0.9813996747150711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.446388992627931</v>
+        <v>3.410284571340867</v>
       </c>
       <c r="C23">
-        <v>0.5593822869945484</v>
+        <v>0.5446030087797169</v>
       </c>
       <c r="D23">
-        <v>0.3389116774659584</v>
+        <v>0.3421382478103112</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.1073399538011</v>
+        <v>11.09379038098353</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007457264291640066</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2334722541903602</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8638353895564919</v>
+        <v>0.2318943820289334</v>
       </c>
       <c r="K23">
-        <v>0.2260067257268474</v>
+        <v>0.8523133956275686</v>
       </c>
       <c r="L23">
-        <v>0.9445032810227474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2252154311495715</v>
+      </c>
+      <c r="M23">
+        <v>0.938214556251836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.861949537948988</v>
+        <v>2.833282783465847</v>
       </c>
       <c r="C24">
-        <v>0.4625183592173414</v>
+        <v>0.4496776356496355</v>
       </c>
       <c r="D24">
-        <v>0.2889967778794613</v>
+        <v>0.2925555363304255</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.446454180819245</v>
+        <v>9.446155629684057</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007645649424716602</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2005485756232659</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7154908671916331</v>
+        <v>0.1991223089980281</v>
       </c>
       <c r="K24">
-        <v>0.1891863722265441</v>
+        <v>0.7060891663102637</v>
       </c>
       <c r="L24">
-        <v>0.7863552725375555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1885206667535826</v>
+      </c>
+      <c r="M24">
+        <v>0.7814762762688332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.27320760459645</v>
+        <v>2.252095151601679</v>
       </c>
       <c r="C25">
-        <v>0.3657652303116947</v>
+        <v>0.3549095203164256</v>
       </c>
       <c r="D25">
-        <v>0.2384015688892021</v>
+        <v>0.2422623634568737</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.758981919016577</v>
+        <v>7.771587413980143</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007848995619304885</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.167125752477034</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5663124367310814</v>
+        <v>0.1658355359456465</v>
       </c>
       <c r="K25">
-        <v>0.1520526982254786</v>
+        <v>0.5590712244731577</v>
       </c>
       <c r="L25">
-        <v>0.6269593389310586</v>
+        <v>0.1514936237519642</v>
+      </c>
+      <c r="M25">
+        <v>0.6234762729431154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.848943269363588</v>
+        <v>3.22542297945671</v>
       </c>
       <c r="C2">
-        <v>0.2895430530656</v>
+        <v>0.6131541445462005</v>
       </c>
       <c r="D2">
-        <v>0.2070816245354479</v>
+        <v>0.02565242058794359</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.59999030639284</v>
+        <v>1.564671262508412</v>
       </c>
       <c r="G2">
-        <v>0.0008000898414731179</v>
+        <v>0.0007931434668664415</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1425688316850149</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.457206712032054</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1257875729867663</v>
+        <v>0.1553880284352616</v>
       </c>
       <c r="M2">
-        <v>0.5138355133777637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5082073661549131</v>
+      </c>
+      <c r="N2">
+        <v>0.9064640968616686</v>
+      </c>
+      <c r="O2">
+        <v>1.221002824529862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.586957932025456</v>
+        <v>2.797755424262448</v>
       </c>
       <c r="C3">
-        <v>0.2471568213651238</v>
+        <v>0.5384757041047123</v>
       </c>
       <c r="D3">
-        <v>0.1840366733778467</v>
+        <v>0.02748562772429164</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.833518790816981</v>
+        <v>1.418174152732277</v>
       </c>
       <c r="G3">
-        <v>0.0008106027694773381</v>
+        <v>0.0008006035612472355</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1273623063093936</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3910397614387549</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1090823189449921</v>
+        <v>0.1433515311855729</v>
       </c>
       <c r="M3">
-        <v>0.4425853325466349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4440712455850644</v>
+      </c>
+      <c r="N3">
+        <v>0.9587621205087942</v>
+      </c>
+      <c r="O3">
+        <v>1.115705433481168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.430478122136179</v>
+        <v>2.53870362687644</v>
       </c>
       <c r="C4">
-        <v>0.2218468452491038</v>
+        <v>0.4929505966064482</v>
       </c>
       <c r="D4">
-        <v>0.1701813828499752</v>
+        <v>0.02865345773675365</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.373497831465585</v>
+        <v>1.331622974802855</v>
       </c>
       <c r="G4">
-        <v>0.0008171883417226946</v>
+        <v>0.0008053145535746067</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1182430871035827</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3515213523694385</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09910776018873335</v>
+        <v>0.1361973258634777</v>
       </c>
       <c r="M4">
-        <v>0.4000347273207012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4053141692227413</v>
+      </c>
+      <c r="N4">
+        <v>0.9924936496224674</v>
+      </c>
+      <c r="O4">
+        <v>1.05381734045308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.367660754820747</v>
+        <v>2.433910707420409</v>
       </c>
       <c r="C5">
-        <v>0.2116829588201909</v>
+        <v>0.4744618136562622</v>
       </c>
       <c r="D5">
-        <v>0.164596243924052</v>
+        <v>0.02913951181979524</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.188307397708172</v>
+        <v>1.297129263168642</v>
       </c>
       <c r="G5">
-        <v>0.0008199078696980936</v>
+        <v>0.0008072683657148087</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1145738422738027</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3356559633537231</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09510481453293096</v>
+        <v>0.1333368577777279</v>
       </c>
       <c r="M5">
-        <v>0.3829555317756927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.389658644667918</v>
+      </c>
+      <c r="N5">
+        <v>1.006630338119653</v>
+      </c>
+      <c r="O5">
+        <v>1.029231032196321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.35728318116756</v>
+        <v>2.416553350654738</v>
       </c>
       <c r="C6">
-        <v>0.2100035139611549</v>
+        <v>0.4713950382523535</v>
       </c>
       <c r="D6">
-        <v>0.1636721643254617</v>
+        <v>0.0292208213037024</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.157683153911393</v>
+        <v>1.291446342997773</v>
       </c>
       <c r="G6">
-        <v>0.0008203616932476177</v>
+        <v>0.0008075948855815992</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1139671863711129</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3330348543335759</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0944436058288538</v>
+        <v>0.1328650718742708</v>
       </c>
       <c r="M6">
-        <v>0.3801341738333264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3870669006291294</v>
+      </c>
+      <c r="N6">
+        <v>1.009000866871389</v>
+      </c>
+      <c r="O6">
+        <v>1.025185046938475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.429627290186914</v>
+        <v>2.537287371864409</v>
       </c>
       <c r="C7">
-        <v>0.221709200535642</v>
+        <v>0.492701019500231</v>
       </c>
       <c r="D7">
-        <v>0.1701058289716144</v>
+        <v>0.02865997229927419</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.370991579879956</v>
+        <v>1.331154734988388</v>
       </c>
       <c r="G7">
-        <v>0.0008172248694567999</v>
+        <v>0.0008053407639196441</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.118193422212304</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3513064695445465</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.09905353653725868</v>
+        <v>0.1361585318741234</v>
       </c>
       <c r="M7">
-        <v>0.3998033869831517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4051024965671886</v>
+      </c>
+      <c r="N7">
+        <v>0.9926827405808076</v>
+      </c>
+      <c r="O7">
+        <v>1.053483273629539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.757604748598254</v>
+        <v>3.077155654888372</v>
       </c>
       <c r="C8">
-        <v>0.2747608054740454</v>
+        <v>0.5873248264798292</v>
       </c>
       <c r="D8">
-        <v>0.1990663461587303</v>
+        <v>0.02627544871310938</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.333262348842169</v>
+        <v>1.5134047887869</v>
       </c>
       <c r="G8">
-        <v>0.0008036895087555325</v>
+        <v>0.0007956894033109876</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1372754841525783</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4341367888331931</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1199630605676631</v>
+        <v>0.151186008611468</v>
       </c>
       <c r="M8">
-        <v>0.4889941369516748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.485952506040789</v>
+      </c>
+      <c r="N8">
+        <v>0.9241497458322456</v>
+      </c>
+      <c r="O8">
+        <v>1.184083775604151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.443388900058665</v>
+        <v>4.169721847363576</v>
       </c>
       <c r="C9">
-        <v>0.3860207954380712</v>
+        <v>0.7764512851369432</v>
       </c>
       <c r="D9">
-        <v>0.2588631654946028</v>
+        <v>0.02195827584047638</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.324530353872319</v>
+        <v>1.901628971862507</v>
       </c>
       <c r="G9">
-        <v>0.0007780282084060708</v>
+        <v>0.0007777372579756937</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1768235295064393</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.607435550457545</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1636863391458228</v>
+        <v>0.1827505787352379</v>
       </c>
       <c r="M9">
-        <v>0.6754913287563298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6503498502026588</v>
+      </c>
+      <c r="N9">
+        <v>0.8034312443467613</v>
+      </c>
+      <c r="O9">
+        <v>1.465185998189128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.986069006381854</v>
+        <v>5.002108090734964</v>
       </c>
       <c r="C10">
-        <v>0.4747242397448019</v>
+        <v>0.9190920722857641</v>
       </c>
       <c r="D10">
-        <v>0.3057137841323936</v>
+        <v>0.01904331253253311</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.883818394582107</v>
+        <v>2.211628645369487</v>
       </c>
       <c r="G10">
-        <v>0.0007594617871768961</v>
+        <v>0.0007650479176082906</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.207826162076433</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7447802766514116</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1982446419650117</v>
+        <v>0.2075586785879295</v>
       </c>
       <c r="M10">
-        <v>0.8229935388906071</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.776107186143058</v>
+      </c>
+      <c r="N10">
+        <v>0.7243328789783163</v>
+      </c>
+      <c r="O10">
+        <v>1.691676095507688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.244916739389396</v>
+        <v>5.38951423479233</v>
       </c>
       <c r="C11">
-        <v>0.5173017377228177</v>
+        <v>0.9851720004203059</v>
       </c>
       <c r="D11">
-        <v>0.3279571402452319</v>
+        <v>0.01778325115684076</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.62301301581681</v>
+        <v>2.359550566666286</v>
       </c>
       <c r="G11">
-        <v>0.0007510096217792338</v>
+        <v>0.0007593602619801468</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2225291371843383</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8103755222460762</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2147069365231502</v>
+        <v>0.2192810868337034</v>
       </c>
       <c r="M11">
-        <v>0.8933089626762509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8347538740524101</v>
+      </c>
+      <c r="N11">
+        <v>0.6907524493219768</v>
+      </c>
+      <c r="O11">
+        <v>1.800248059132016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.345020497998803</v>
+        <v>5.537689055573537</v>
       </c>
       <c r="C12">
-        <v>0.5338186746431575</v>
+        <v>1.0104030997866</v>
       </c>
       <c r="D12">
-        <v>0.3365441081360387</v>
+        <v>0.01731661844567967</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.9081278804037</v>
+        <v>2.416701087534307</v>
       </c>
       <c r="G12">
-        <v>0.0007478012024627561</v>
+        <v>0.0007572164811746607</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2282008782342757</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.835759160431941</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2210689957683272</v>
+        <v>0.2237909010155334</v>
       </c>
       <c r="M12">
-        <v>0.9204937041871304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8572023557392114</v>
+      </c>
+      <c r="N12">
+        <v>0.6784126409733631</v>
+      </c>
+      <c r="O12">
+        <v>1.842272273495382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.323362200104384</v>
+        <v>5.505707774713528</v>
       </c>
       <c r="C13">
-        <v>0.5302426122358384</v>
+        <v>1.004959242897087</v>
       </c>
       <c r="D13">
-        <v>0.3346869236740417</v>
+        <v>0.01741662972888758</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.84647595221105</v>
+        <v>2.404339721652818</v>
       </c>
       <c r="G13">
-        <v>0.0007484926614798682</v>
+        <v>0.0007576777749877153</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2269744217496452</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8302664115126603</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2196927279680025</v>
+        <v>0.2228163472868658</v>
       </c>
       <c r="M13">
-        <v>0.9146124634241843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8523564150847065</v>
+      </c>
+      <c r="N13">
+        <v>0.6810529658923556</v>
+      </c>
+      <c r="O13">
+        <v>1.833179159292328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.25310826269299</v>
+        <v>5.401673834992323</v>
       </c>
       <c r="C14">
-        <v>0.5186522300838874</v>
+        <v>0.9872433814290673</v>
       </c>
       <c r="D14">
-        <v>0.3286601188007552</v>
+        <v>0.0177446435265054</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.64635965202211</v>
+        <v>2.364228730750114</v>
       </c>
       <c r="G14">
-        <v>0.0007507458626155638</v>
+        <v>0.0007591837045476812</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2229935561035106</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8124523285030847</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2152276414288892</v>
+        <v>0.2196506445069986</v>
       </c>
       <c r="M14">
-        <v>0.8955336783546883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.836595704146518</v>
+      </c>
+      <c r="N14">
+        <v>0.6897295117424704</v>
+      </c>
+      <c r="O14">
+        <v>1.803686470979486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.210358934378746</v>
+        <v>5.338148609472796</v>
       </c>
       <c r="C15">
-        <v>0.5116065009336239</v>
+        <v>0.9764201689852996</v>
       </c>
       <c r="D15">
-        <v>0.3249908556595926</v>
+        <v>0.01794696575558064</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.5244891568496</v>
+        <v>2.339812039180572</v>
       </c>
       <c r="G15">
-        <v>0.0007521247766100684</v>
+        <v>0.000760107364619868</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2205692932876637</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8016147122008874</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2125100406457889</v>
+        <v>0.2177210302584598</v>
       </c>
       <c r="M15">
-        <v>0.8839231481249499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.826974157841569</v>
+      </c>
+      <c r="N15">
+        <v>0.6950941456514173</v>
+      </c>
+      <c r="O15">
+        <v>1.785743513088931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.969423133681971</v>
+        <v>4.976984000937819</v>
       </c>
       <c r="C16">
-        <v>0.4719924689835011</v>
+        <v>0.9148006084359679</v>
       </c>
       <c r="D16">
-        <v>0.3042813057791847</v>
+        <v>0.019127073162859</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.836184874268326</v>
+        <v>2.202112338358845</v>
       </c>
       <c r="G16">
-        <v>0.0007600134709330496</v>
+        <v>0.0007654211446125962</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.206878807685257</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7405639885595079</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1971854666621837</v>
+        <v>0.2068020458272457</v>
       </c>
       <c r="M16">
-        <v>0.8184707359704433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7723062050674514</v>
+      </c>
+      <c r="N16">
+        <v>0.7265783349024986</v>
+      </c>
+      <c r="O16">
+        <v>1.684701559221878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.824921890955068</v>
+        <v>4.757806877772282</v>
       </c>
       <c r="C17">
-        <v>0.4483087533234595</v>
+        <v>0.8773289562809055</v>
       </c>
       <c r="D17">
-        <v>0.2918348098115189</v>
+        <v>0.01986861718491539</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.422175936823606</v>
+        <v>2.119502374506993</v>
       </c>
       <c r="G17">
-        <v>0.0007648468200410656</v>
+        <v>0.0007687012173128605</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1986454603871231</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7039724286005224</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1879884050784639</v>
+        <v>0.2002209294022563</v>
       </c>
       <c r="M17">
-        <v>0.7792040737869002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7391602739951253</v>
+      </c>
+      <c r="N17">
+        <v>0.7465289334749627</v>
+      </c>
+      <c r="O17">
+        <v>1.624211327210929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.742911093652879</v>
+        <v>4.632551296199438</v>
       </c>
       <c r="C18">
-        <v>0.4348908591118459</v>
+        <v>0.8558859924690978</v>
       </c>
       <c r="D18">
-        <v>0.2847614420465732</v>
+        <v>0.02030127213911737</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.186797626252968</v>
+        <v>2.072627391613679</v>
       </c>
       <c r="G18">
-        <v>0.0007676267260824458</v>
+        <v>0.0007705959535254658</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1939650749101851</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.683212580633807</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1827668064806929</v>
+        <v>0.1964762610708988</v>
       </c>
       <c r="M18">
-        <v>0.7569150057930827</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7202288505909067</v>
+      </c>
+      <c r="N18">
+        <v>0.7582279983939273</v>
+      </c>
+      <c r="O18">
+        <v>1.589932885715569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.715323049436961</v>
+        <v>4.590274780819755</v>
       </c>
       <c r="C19">
-        <v>0.4303808679137546</v>
+        <v>0.8486435775449763</v>
       </c>
       <c r="D19">
-        <v>0.282380380060772</v>
+        <v>0.0204487868673473</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.107549681034669</v>
+        <v>2.056862169598617</v>
       </c>
       <c r="G19">
-        <v>0.0007685681262369813</v>
+        <v>0.0007712389366721917</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1923893674870385</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6762302422282787</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1810100001345205</v>
+        <v>0.1952151285628716</v>
       </c>
       <c r="M19">
-        <v>0.7494165299558304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7138409267165429</v>
+      </c>
+      <c r="N19">
+        <v>0.7622266895941081</v>
+      </c>
+      <c r="O19">
+        <v>1.578411818433409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.840187784543502</v>
+        <v>4.781053424349352</v>
       </c>
       <c r="C20">
-        <v>0.4508082866104814</v>
+        <v>0.8813062689615094</v>
       </c>
       <c r="D20">
-        <v>0.2931507080445499</v>
+        <v>0.01978903623531902</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.465957380280031</v>
+        <v>2.128229116036835</v>
       </c>
       <c r="G20">
-        <v>0.0007643323588693489</v>
+        <v>0.0007683512220511128</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1995160802686122</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7078373563380254</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1889602346398718</v>
+        <v>0.2009172421488756</v>
       </c>
       <c r="M20">
-        <v>0.7833527978569137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7426746960710204</v>
+      </c>
+      <c r="N20">
+        <v>0.7443817614658101</v>
+      </c>
+      <c r="O20">
+        <v>1.630596644551204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.27368377753919</v>
+        <v>5.432189324276976</v>
       </c>
       <c r="C21">
-        <v>0.5220452594641074</v>
+        <v>0.992440996960795</v>
       </c>
       <c r="D21">
-        <v>0.3304256225504787</v>
+        <v>0.01764800317671256</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.70498957244973</v>
+        <v>2.375978250385288</v>
       </c>
       <c r="G21">
-        <v>0.0007500843149517919</v>
+        <v>0.0007587411235029311</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2241598512547753</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8176691320382332</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2165354766572634</v>
+        <v>0.2205784991409843</v>
       </c>
       <c r="M21">
-        <v>0.9011215922512434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8412182013579184</v>
+      </c>
+      <c r="N21">
+        <v>0.6871705193946553</v>
+      </c>
+      <c r="O21">
+        <v>1.812323506623727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.569364294828858</v>
+        <v>5.866446093102525</v>
       </c>
       <c r="C22">
-        <v>0.5709434062596586</v>
+        <v>1.066307273248214</v>
       </c>
       <c r="D22">
-        <v>0.3557604178513571</v>
+        <v>0.01631066929232983</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.54561211903962</v>
+        <v>2.544595863103979</v>
       </c>
       <c r="G22">
-        <v>0.0007407229539270056</v>
+        <v>0.0007525175168995409</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2408831581224575</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8926809513618394</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2353174425996514</v>
+        <v>0.2338452518647358</v>
       </c>
       <c r="M22">
-        <v>0.9813996747150711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9070408860317229</v>
+      </c>
+      <c r="N22">
+        <v>0.6519906776148758</v>
+      </c>
+      <c r="O22">
+        <v>1.936461976870405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.410284571340867</v>
+        <v>5.633801102127222</v>
       </c>
       <c r="C23">
-        <v>0.5446030087797169</v>
+        <v>1.026757223965348</v>
       </c>
       <c r="D23">
-        <v>0.3421382478103112</v>
+        <v>0.01701837309461851</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.09379038098353</v>
+        <v>2.453936487127351</v>
       </c>
       <c r="G23">
-        <v>0.0007457264291640066</v>
+        <v>0.0007558347329045445</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2318943820289334</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8523133956275686</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2252154311495715</v>
+        <v>0.2267235193393304</v>
       </c>
       <c r="M23">
-        <v>0.938214556251836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8717681883181427</v>
+      </c>
+      <c r="N23">
+        <v>0.6705532525165552</v>
+      </c>
+      <c r="O23">
+        <v>1.869674355969735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.833282783465847</v>
+        <v>4.770541333373558</v>
       </c>
       <c r="C24">
-        <v>0.4496776356496355</v>
+        <v>0.8795078171678199</v>
       </c>
       <c r="D24">
-        <v>0.2925555363304255</v>
+        <v>0.01982499513793545</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.446155629684057</v>
+        <v>2.124281840044063</v>
       </c>
       <c r="G24">
-        <v>0.0007645649424716602</v>
+        <v>0.0007685094267342621</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1991223089980281</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7060891663102637</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1885206667535826</v>
+        <v>0.200602318570418</v>
       </c>
       <c r="M24">
-        <v>0.7814762762688332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7410854401742455</v>
+      </c>
+      <c r="N24">
+        <v>0.7453517863208319</v>
+      </c>
+      <c r="O24">
+        <v>1.627708299219208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.252095151601679</v>
+        <v>3.869650889819411</v>
       </c>
       <c r="C25">
-        <v>0.3549095203164256</v>
+        <v>0.7247591671292639</v>
       </c>
       <c r="D25">
-        <v>0.2422623634568737</v>
+        <v>0.02308416547583647</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.771587413980143</v>
+        <v>1.792723749096766</v>
       </c>
       <c r="G25">
-        <v>0.0007848995619304885</v>
+        <v>0.000782498636352241</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1658355359456465</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5590712244731577</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1514936237519642</v>
+        <v>0.1739540428871038</v>
       </c>
       <c r="M25">
-        <v>0.6234762729431154</v>
+        <v>0.6051129387809198</v>
+      </c>
+      <c r="N25">
+        <v>0.8345032486005408</v>
+      </c>
+      <c r="O25">
+        <v>1.386006321486917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.22542297945671</v>
+        <v>0.8187158633529918</v>
       </c>
       <c r="C2">
-        <v>0.6131541445462005</v>
+        <v>0.1405269438190828</v>
       </c>
       <c r="D2">
-        <v>0.02565242058794359</v>
+        <v>0.1207614396677563</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.564671262508412</v>
+        <v>2.729880086358051</v>
       </c>
       <c r="G2">
-        <v>0.0007931434668664415</v>
+        <v>0.0008462213062649458</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.057971948607175</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8766981984126119</v>
       </c>
       <c r="L2">
-        <v>0.1553880284352616</v>
+        <v>0.2258911411742162</v>
       </c>
       <c r="M2">
-        <v>0.5082073661549131</v>
+        <v>0.2141759522926634</v>
       </c>
       <c r="N2">
-        <v>0.9064640968616686</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.221002824529862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.797755424262448</v>
+        <v>0.7121757173642322</v>
       </c>
       <c r="C3">
-        <v>0.5384757041047123</v>
+        <v>0.122122959582498</v>
       </c>
       <c r="D3">
-        <v>0.02748562772429164</v>
+        <v>0.120171474506428</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.418174152732277</v>
+        <v>2.524137410974646</v>
       </c>
       <c r="G3">
-        <v>0.0008006035612472355</v>
+        <v>0.0008531301939539711</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.931977524854673</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7576468848978095</v>
       </c>
       <c r="L3">
-        <v>0.1433515311855729</v>
+        <v>0.2058532475471324</v>
       </c>
       <c r="M3">
-        <v>0.4440712455850644</v>
+        <v>0.1890356676561069</v>
       </c>
       <c r="N3">
-        <v>0.9587621205087942</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.115705433481168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.53870362687644</v>
+        <v>0.6478802210574486</v>
       </c>
       <c r="C4">
-        <v>0.4929505966064482</v>
+        <v>0.1109478854287005</v>
       </c>
       <c r="D4">
-        <v>0.02865345773675365</v>
+        <v>0.1198037986573439</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.331622974802855</v>
+        <v>2.400737701572652</v>
       </c>
       <c r="G4">
-        <v>0.0008053145535746067</v>
+        <v>0.0008574965948793203</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.856542519637046</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6856695620578108</v>
       </c>
       <c r="L4">
-        <v>0.1361973258634777</v>
+        <v>0.1938446326788821</v>
       </c>
       <c r="M4">
-        <v>0.4053141692227413</v>
+        <v>0.173903258124227</v>
       </c>
       <c r="N4">
-        <v>0.9924936496224674</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.05381734045308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.433910707420409</v>
+        <v>0.6219311020603016</v>
       </c>
       <c r="C5">
-        <v>0.4744618136562622</v>
+        <v>0.1064194910934901</v>
       </c>
       <c r="D5">
-        <v>0.02913951181979524</v>
+        <v>0.1196523998767525</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.297129263168642</v>
+        <v>2.351122152310651</v>
       </c>
       <c r="G5">
-        <v>0.0008072683657148087</v>
+        <v>0.0008593082017579848</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.826245515203851</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6565856259826006</v>
       </c>
       <c r="L5">
-        <v>0.1333368577777279</v>
+        <v>0.189019192752184</v>
       </c>
       <c r="M5">
-        <v>0.389658644667918</v>
+        <v>0.1678058963917728</v>
       </c>
       <c r="N5">
-        <v>1.006630338119653</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.029231032196321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.416553350654738</v>
+        <v>0.6176366435448699</v>
       </c>
       <c r="C6">
-        <v>0.4713950382523535</v>
+        <v>0.1056689327623275</v>
       </c>
       <c r="D6">
-        <v>0.0292208213037024</v>
+        <v>0.1196271598783589</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.291446342997773</v>
+        <v>2.342922221152619</v>
       </c>
       <c r="G6">
-        <v>0.0008075948855815992</v>
+        <v>0.0008596109942934028</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.821240353547495</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.651770243877877</v>
       </c>
       <c r="L6">
-        <v>0.1328650718742708</v>
+        <v>0.1882218830157925</v>
       </c>
       <c r="M6">
-        <v>0.3870669006291294</v>
+        <v>0.1667974141109489</v>
       </c>
       <c r="N6">
-        <v>1.009000866871389</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.025185046938475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.537287371864409</v>
+        <v>0.6475292806412938</v>
       </c>
       <c r="C7">
-        <v>0.492701019500231</v>
+        <v>0.1108867180013391</v>
       </c>
       <c r="D7">
-        <v>0.02865997229927419</v>
+        <v>0.1198017634457251</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.331154734988388</v>
+        <v>2.400065935752565</v>
       </c>
       <c r="G7">
-        <v>0.0008053407639196441</v>
+        <v>0.0008575208949209584</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.856132180588645</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6852763678746641</v>
       </c>
       <c r="L7">
-        <v>0.1361585318741234</v>
+        <v>0.1937792866674855</v>
       </c>
       <c r="M7">
-        <v>0.4051024965671886</v>
+        <v>0.1738207558435647</v>
       </c>
       <c r="N7">
-        <v>0.9926827405808076</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.053483273629539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.077155654888372</v>
+        <v>0.7817295119106404</v>
       </c>
       <c r="C8">
-        <v>0.5873248264798292</v>
+        <v>0.1341515987216013</v>
       </c>
       <c r="D8">
-        <v>0.02627544871310938</v>
+        <v>0.1205590224950477</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.5134047887869</v>
+        <v>2.658291781251279</v>
       </c>
       <c r="G8">
-        <v>0.0007956894033109876</v>
+        <v>0.0008485783129724005</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.014103757630181</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8353952030173843</v>
       </c>
       <c r="L8">
-        <v>0.151186008611468</v>
+        <v>0.2189171936628469</v>
       </c>
       <c r="M8">
-        <v>0.485952506040789</v>
+        <v>0.2054400358502235</v>
       </c>
       <c r="N8">
-        <v>0.9241497458322456</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.184083775604151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.169721847363576</v>
+        <v>1.055265754290019</v>
       </c>
       <c r="C9">
-        <v>0.7764512851369432</v>
+        <v>0.1810585566470166</v>
       </c>
       <c r="D9">
-        <v>0.02195827584047638</v>
+        <v>0.1220106764868731</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.901628971862507</v>
+        <v>3.191102514922051</v>
       </c>
       <c r="G9">
-        <v>0.0007777372579756937</v>
+        <v>0.0008319793842696221</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.341179430931135</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.140368034323444</v>
       </c>
       <c r="L9">
-        <v>0.1827505787352379</v>
+        <v>0.2708432560313838</v>
       </c>
       <c r="M9">
-        <v>0.6503498502026588</v>
+        <v>0.2702099677931429</v>
       </c>
       <c r="N9">
-        <v>0.8034312443467613</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.465185998189128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.002108090734964</v>
+        <v>1.264823380976708</v>
       </c>
       <c r="C10">
-        <v>0.9190920722857641</v>
+        <v>0.2167551523859998</v>
       </c>
       <c r="D10">
-        <v>0.01904331253253311</v>
+        <v>0.1230717476530927</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.211628645369487</v>
+        <v>3.603569471712433</v>
       </c>
       <c r="G10">
-        <v>0.0007650479176082906</v>
+        <v>0.0008202813791942193</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.595095847241623</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.373495831359776</v>
       </c>
       <c r="L10">
-        <v>0.2075586785879295</v>
+        <v>0.3110431348715395</v>
       </c>
       <c r="M10">
-        <v>0.776107186143058</v>
+        <v>0.3200238494190089</v>
       </c>
       <c r="N10">
-        <v>0.7243328789783163</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.691676095507688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.38951423479233</v>
+        <v>1.36258822401652</v>
       </c>
       <c r="C11">
-        <v>0.9851720004203059</v>
+        <v>0.2333760706180783</v>
       </c>
       <c r="D11">
-        <v>0.01778325115684076</v>
+        <v>0.1235569585364686</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.359550566666286</v>
+        <v>3.796991304425887</v>
       </c>
       <c r="G11">
-        <v>0.0007593602619801468</v>
+        <v>0.0008150493406836503</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.714327877472101</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.482172257864704</v>
       </c>
       <c r="L11">
-        <v>0.2192810868337034</v>
+        <v>0.3298868035797682</v>
       </c>
       <c r="M11">
-        <v>0.8347538740524101</v>
+        <v>0.3433040970443457</v>
       </c>
       <c r="N11">
-        <v>0.6907524493219768</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.800248059132016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.537689055573537</v>
+        <v>1.400012186861318</v>
       </c>
       <c r="C12">
-        <v>1.0104030997866</v>
+        <v>0.2397356474582324</v>
       </c>
       <c r="D12">
-        <v>0.01731661844567967</v>
+        <v>0.1237414023830681</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.416701087534307</v>
+        <v>3.871180476774782</v>
       </c>
       <c r="G12">
-        <v>0.0007572164811746607</v>
+        <v>0.000813079286272486</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.760084202130429</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.523763536510188</v>
       </c>
       <c r="L12">
-        <v>0.2237909010155334</v>
+        <v>0.3371126676370579</v>
       </c>
       <c r="M12">
-        <v>0.8572023557392114</v>
+        <v>0.3522213505624308</v>
       </c>
       <c r="N12">
-        <v>0.6784126409733631</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.842272273495382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.505707774713528</v>
+        <v>1.391933471813047</v>
       </c>
       <c r="C13">
-        <v>1.004959242897087</v>
+        <v>0.2383628993168969</v>
       </c>
       <c r="D13">
-        <v>0.01741662972888758</v>
+        <v>0.1237016419003183</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.404339721652818</v>
+        <v>3.855158591198631</v>
       </c>
       <c r="G13">
-        <v>0.0007576777749877153</v>
+        <v>0.0008135031026204497</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.750201621660352</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.514785604458638</v>
       </c>
       <c r="L13">
-        <v>0.2228163472868658</v>
+        <v>0.3355522652028782</v>
       </c>
       <c r="M13">
-        <v>0.8523564150847065</v>
+        <v>0.350296133059544</v>
       </c>
       <c r="N13">
-        <v>0.6810529658923556</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.833179159292328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.401673834992323</v>
+        <v>1.365658729290658</v>
       </c>
       <c r="C14">
-        <v>0.9872433814290673</v>
+        <v>0.2338978970607002</v>
       </c>
       <c r="D14">
-        <v>0.0177446435265054</v>
+        <v>0.1235721166219577</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.364228730750114</v>
+        <v>3.803075278398495</v>
       </c>
       <c r="G14">
-        <v>0.0007591837045476812</v>
+        <v>0.0008148870486988928</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.718079709578859</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.485584852678926</v>
       </c>
       <c r="L14">
-        <v>0.2196506445069986</v>
+        <v>0.3304794106858253</v>
       </c>
       <c r="M14">
-        <v>0.836595704146518</v>
+        <v>0.3440356142424221</v>
       </c>
       <c r="N14">
-        <v>0.6897295117424704</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.803686470979486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.338148609472796</v>
+        <v>1.349618758859037</v>
       </c>
       <c r="C15">
-        <v>0.9764201689852996</v>
+        <v>0.231171832441575</v>
       </c>
       <c r="D15">
-        <v>0.01794696575558064</v>
+        <v>0.1234928812429956</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.339812039180572</v>
+        <v>3.771299278119727</v>
       </c>
       <c r="G15">
-        <v>0.000760107364619868</v>
+        <v>0.000815736162832048</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.698485204744486</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.46775747574776</v>
       </c>
       <c r="L15">
-        <v>0.2177210302584598</v>
+        <v>0.3273842031526328</v>
       </c>
       <c r="M15">
-        <v>0.826974157841569</v>
+        <v>0.3402144787075798</v>
       </c>
       <c r="N15">
-        <v>0.6950941456514173</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.785743513088931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.976984000937819</v>
+        <v>1.258487578768097</v>
       </c>
       <c r="C16">
-        <v>0.9148006084359679</v>
+        <v>0.215677510512208</v>
       </c>
       <c r="D16">
-        <v>0.019127073162859</v>
+        <v>0.1230401171916284</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.202112338358845</v>
+        <v>3.591054704416024</v>
       </c>
       <c r="G16">
-        <v>0.0007654211446125962</v>
+        <v>0.0008206249670664667</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.587384532448127</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.366451413655568</v>
       </c>
       <c r="L16">
-        <v>0.2068020458272457</v>
+        <v>0.3098236999652926</v>
       </c>
       <c r="M16">
-        <v>0.7723062050674514</v>
+        <v>0.3185159324318647</v>
       </c>
       <c r="N16">
-        <v>0.7265783349024986</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.684701559221878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.757806877772282</v>
+        <v>1.203240946438058</v>
       </c>
       <c r="C17">
-        <v>0.8773289562809055</v>
+        <v>0.2062773596041723</v>
       </c>
       <c r="D17">
-        <v>0.01986861718491539</v>
+        <v>0.122763239811416</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.119502374506993</v>
+        <v>3.482039297079041</v>
       </c>
       <c r="G17">
-        <v>0.0007687012173128605</v>
+        <v>0.0008236458703976331</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.520229451557228</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.305016800826451</v>
       </c>
       <c r="L17">
-        <v>0.2002209294022563</v>
+        <v>0.2992003463060371</v>
       </c>
       <c r="M17">
-        <v>0.7391602739951253</v>
+        <v>0.3053717284466373</v>
       </c>
       <c r="N17">
-        <v>0.7465289334749627</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.624211327210929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.632551296199438</v>
+        <v>1.171690398884067</v>
       </c>
       <c r="C18">
-        <v>0.8558859924690978</v>
+        <v>0.200905928632892</v>
       </c>
       <c r="D18">
-        <v>0.02030127213911737</v>
+        <v>0.1226042023735587</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.072627391613679</v>
+        <v>3.419874001794113</v>
       </c>
       <c r="G18">
-        <v>0.0007705959535254658</v>
+        <v>0.000825391941239656</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.481949555541561</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.26992437946177</v>
       </c>
       <c r="L18">
-        <v>0.1964762610708988</v>
+        <v>0.2931417937387835</v>
       </c>
       <c r="M18">
-        <v>0.7202288505909067</v>
+        <v>0.2978690396107879</v>
       </c>
       <c r="N18">
-        <v>0.7582279983939273</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.589932885715569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.590274780819755</v>
+        <v>1.161045212775463</v>
       </c>
       <c r="C19">
-        <v>0.8486435775449763</v>
+        <v>0.1990930107795208</v>
       </c>
       <c r="D19">
-        <v>0.0204487868673473</v>
+        <v>0.1225503821351879</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.056862169598617</v>
+        <v>3.398914982972798</v>
       </c>
       <c r="G19">
-        <v>0.0007712389366721917</v>
+        <v>0.0008259846433052369</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.469046030556271</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.258082713483304</v>
       </c>
       <c r="L19">
-        <v>0.1952151285628716</v>
+        <v>0.2910990620945597</v>
       </c>
       <c r="M19">
-        <v>0.7138409267165429</v>
+        <v>0.2953382775728528</v>
       </c>
       <c r="N19">
-        <v>0.7622266895941081</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.578411818433409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.781053424349352</v>
+        <v>1.209098308729068</v>
       </c>
       <c r="C20">
-        <v>0.8813062689615094</v>
+        <v>0.2072742965281833</v>
       </c>
       <c r="D20">
-        <v>0.01978903623531902</v>
+        <v>0.1227926892555971</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.128229116036835</v>
+        <v>3.493587770106416</v>
       </c>
       <c r="G20">
-        <v>0.0007683512220511128</v>
+        <v>0.0008233234190625943</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.527341936304452</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.311531039191095</v>
       </c>
       <c r="L20">
-        <v>0.2009172421488756</v>
+        <v>0.3003257974177842</v>
       </c>
       <c r="M20">
-        <v>0.7426746960710204</v>
+        <v>0.3067649134642636</v>
       </c>
       <c r="N20">
-        <v>0.7443817614658101</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.630596644551204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.432189324276976</v>
+        <v>1.373364889114924</v>
       </c>
       <c r="C21">
-        <v>0.992440996960795</v>
+        <v>0.2352075055684537</v>
       </c>
       <c r="D21">
-        <v>0.01764800317671256</v>
+        <v>0.1236101392921753</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.375978250385288</v>
+        <v>3.818346823651439</v>
       </c>
       <c r="G21">
-        <v>0.0007587411235029311</v>
+        <v>0.0008144802601583075</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.727497658156054</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.494149423966519</v>
       </c>
       <c r="L21">
-        <v>0.2205784991409843</v>
+        <v>0.3319668976529186</v>
       </c>
       <c r="M21">
-        <v>0.8412182013579184</v>
+        <v>0.3458716193967533</v>
       </c>
       <c r="N21">
-        <v>0.6871705193946553</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.812323506623727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.866446093102525</v>
+        <v>1.483097312505549</v>
       </c>
       <c r="C22">
-        <v>1.066307273248214</v>
+        <v>0.2538516495850445</v>
       </c>
       <c r="D22">
-        <v>0.01631066929232983</v>
+        <v>0.1241486859750225</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.544595863103979</v>
+        <v>4.036161838012248</v>
       </c>
       <c r="G22">
-        <v>0.0007525175168995409</v>
+        <v>0.0008087651624817335</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.861879762162019</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.6160862608873</v>
       </c>
       <c r="L22">
-        <v>0.2338452518647358</v>
+        <v>0.3531772810257223</v>
       </c>
       <c r="M22">
-        <v>0.9070408860317229</v>
+        <v>0.37202864080502</v>
       </c>
       <c r="N22">
-        <v>0.6519906776148758</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.936461976870405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.633801102127222</v>
+        <v>1.42429500725396</v>
       </c>
       <c r="C23">
-        <v>1.026757223965348</v>
+        <v>0.2438615678476594</v>
       </c>
       <c r="D23">
-        <v>0.01701837309461851</v>
+        <v>0.123860737455999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.453936487127351</v>
+        <v>3.919360359931034</v>
       </c>
       <c r="G23">
-        <v>0.0007558347329045445</v>
+        <v>0.0008118101155653647</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.789805803850953</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.550748038062125</v>
       </c>
       <c r="L23">
-        <v>0.2267235193393304</v>
+        <v>0.3418046746278094</v>
       </c>
       <c r="M23">
-        <v>0.8717681883181427</v>
+        <v>0.3580089261601245</v>
       </c>
       <c r="N23">
-        <v>0.6705532525165552</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.869674355969735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.770541333373558</v>
+        <v>1.206449540411569</v>
       </c>
       <c r="C24">
-        <v>0.8795078171678199</v>
+        <v>0.206823479839116</v>
       </c>
       <c r="D24">
-        <v>0.01982499513793545</v>
+        <v>0.1227793747417394</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.124281840044063</v>
+        <v>3.488365128003409</v>
       </c>
       <c r="G24">
-        <v>0.0007685094267342621</v>
+        <v>0.0008234691701993959</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.524125364104464</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.3085852489655</v>
       </c>
       <c r="L24">
-        <v>0.200602318570418</v>
+        <v>0.2998168292404131</v>
       </c>
       <c r="M24">
-        <v>0.7410854401742455</v>
+        <v>0.3061348869649123</v>
       </c>
       <c r="N24">
-        <v>0.7453517863208319</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.627708299219208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.869650889819411</v>
+        <v>0.9799353335410785</v>
       </c>
       <c r="C25">
-        <v>0.7247591671292639</v>
+        <v>0.1681876133413738</v>
       </c>
       <c r="D25">
-        <v>0.02308416547583647</v>
+        <v>0.1216200795610796</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.792723749096766</v>
+        <v>3.04365463167764</v>
       </c>
       <c r="G25">
-        <v>0.000782498636352241</v>
+        <v>0.0008363767647831281</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.250544996273561</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.056476676909654</v>
       </c>
       <c r="L25">
-        <v>0.1739540428871038</v>
+        <v>0.2564705936948144</v>
       </c>
       <c r="M25">
-        <v>0.6051129387809198</v>
+        <v>0.2523390565648924</v>
       </c>
       <c r="N25">
-        <v>0.8345032486005408</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.386006321486917</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8187158633529918</v>
+        <v>0.6736822784194203</v>
       </c>
       <c r="C2">
-        <v>0.1405269438190828</v>
+        <v>0.04701910973241752</v>
       </c>
       <c r="D2">
-        <v>0.1207614396677563</v>
+        <v>0.1557518569709586</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.729880086358051</v>
+        <v>2.748984386832774</v>
       </c>
       <c r="G2">
-        <v>0.0008462213062649458</v>
+        <v>0.002572946102940586</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.057971948607175</v>
+        <v>2.299314050442433</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8766981984126119</v>
+        <v>0.5012868498830585</v>
       </c>
       <c r="L2">
-        <v>0.2258911411742162</v>
+        <v>0.2833004938980537</v>
       </c>
       <c r="M2">
-        <v>0.2141759522926634</v>
+        <v>0.2163571954158172</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7121757173642322</v>
+        <v>0.6530833930316362</v>
       </c>
       <c r="C3">
-        <v>0.122122959582498</v>
+        <v>0.04151202104242202</v>
       </c>
       <c r="D3">
-        <v>0.120171474506428</v>
+        <v>0.1549177614188153</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.524137410974646</v>
+        <v>2.695186271732894</v>
       </c>
       <c r="G3">
-        <v>0.0008531301939539711</v>
+        <v>0.002577160240339763</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.931977524854673</v>
+        <v>2.265624877563482</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7576468848978095</v>
+        <v>0.4747265185326341</v>
       </c>
       <c r="L3">
-        <v>0.2058532475471324</v>
+        <v>0.279392074124587</v>
       </c>
       <c r="M3">
-        <v>0.1890356676561069</v>
+        <v>0.2115483829487523</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6478802210574486</v>
+        <v>0.6409779543314187</v>
       </c>
       <c r="C4">
-        <v>0.1109478854287005</v>
+        <v>0.03811500282337477</v>
       </c>
       <c r="D4">
-        <v>0.1198037986573439</v>
+        <v>0.1543881762033124</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.400737701572652</v>
+        <v>2.662954077801047</v>
       </c>
       <c r="G4">
-        <v>0.0008574965948793203</v>
+        <v>0.002579884480801597</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.856542519637046</v>
+        <v>2.24546214786335</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6856695620578108</v>
+        <v>0.4588297901373153</v>
       </c>
       <c r="L4">
-        <v>0.1938446326788821</v>
+        <v>0.277122879091209</v>
       </c>
       <c r="M4">
-        <v>0.173903258124227</v>
+        <v>0.2087397795686883</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6219311020603016</v>
+        <v>0.6361812959574138</v>
       </c>
       <c r="C5">
-        <v>0.1064194910934901</v>
+        <v>0.03672665032969746</v>
       </c>
       <c r="D5">
-        <v>0.1196523998767525</v>
+        <v>0.1541679517578629</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.351122152310651</v>
+        <v>2.650019860929348</v>
       </c>
       <c r="G5">
-        <v>0.0008593082017579848</v>
+        <v>0.002581029127692647</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.826245515203851</v>
+        <v>2.237376714334374</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6565856259826006</v>
+        <v>0.4524550374576393</v>
       </c>
       <c r="L5">
-        <v>0.189019192752184</v>
+        <v>0.2762310108582682</v>
       </c>
       <c r="M5">
-        <v>0.1678058963917728</v>
+        <v>0.2076314803635846</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6176366435448699</v>
+        <v>0.6353930539964949</v>
       </c>
       <c r="C6">
-        <v>0.1056689327623275</v>
+        <v>0.03649586835526009</v>
       </c>
       <c r="D6">
-        <v>0.1196271598783589</v>
+        <v>0.1541311162591121</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.342922221152619</v>
+        <v>2.647884248627477</v>
       </c>
       <c r="G6">
-        <v>0.0008596109942934028</v>
+        <v>0.002581221282309881</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.821240353547495</v>
+        <v>2.236042038470941</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.651770243877877</v>
+        <v>0.4514027487011418</v>
       </c>
       <c r="L6">
-        <v>0.1882218830157925</v>
+        <v>0.2760849009998694</v>
       </c>
       <c r="M6">
-        <v>0.1667974141109489</v>
+        <v>0.2074496367078211</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6475292806412938</v>
+        <v>0.6409127125783698</v>
       </c>
       <c r="C7">
-        <v>0.1108867180013391</v>
+        <v>0.03809629551319915</v>
       </c>
       <c r="D7">
-        <v>0.1198017634457251</v>
+        <v>0.1543852240882053</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.400065935752565</v>
+        <v>2.662778830649415</v>
       </c>
       <c r="G7">
-        <v>0.0008575208949209584</v>
+        <v>0.002579899778313908</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.856132180588645</v>
+        <v>2.245352574779929</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6852763678746641</v>
+        <v>0.4587433999731303</v>
       </c>
       <c r="L7">
-        <v>0.1937792866674855</v>
+        <v>0.2771107180337964</v>
       </c>
       <c r="M7">
-        <v>0.1738207558435647</v>
+        <v>0.2087246859482796</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7817295119106404</v>
+        <v>0.6664672201443125</v>
       </c>
       <c r="C8">
-        <v>0.1341515987216013</v>
+        <v>0.04512344680745173</v>
       </c>
       <c r="D8">
-        <v>0.1205590224950477</v>
+        <v>0.1554678657215796</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.658291781251279</v>
+        <v>2.730268409951563</v>
       </c>
       <c r="G8">
-        <v>0.0008485783129724005</v>
+        <v>0.002574370823899303</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.014103757630181</v>
+        <v>2.287589337815987</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8353952030173843</v>
+        <v>0.4920433475584787</v>
       </c>
       <c r="L8">
-        <v>0.2189171936628469</v>
+        <v>0.2819257700670761</v>
       </c>
       <c r="M8">
-        <v>0.2054400358502235</v>
+        <v>0.2146692291262262</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.055265754290019</v>
+        <v>0.7208860437933424</v>
       </c>
       <c r="C9">
-        <v>0.1810585566470166</v>
+        <v>0.05878493960253195</v>
       </c>
       <c r="D9">
-        <v>0.1220106764868731</v>
+        <v>0.1574537317075446</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.191102514922051</v>
+        <v>2.868995348567211</v>
       </c>
       <c r="G9">
-        <v>0.0008319793842696221</v>
+        <v>0.002564608465560501</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.341179430931135</v>
+        <v>2.374583267805036</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.140368034323444</v>
+        <v>0.5606207473991844</v>
       </c>
       <c r="L9">
-        <v>0.2708432560313838</v>
+        <v>0.2924047009526589</v>
       </c>
       <c r="M9">
-        <v>0.2702099677931429</v>
+        <v>0.2274697141421029</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.264823380976708</v>
+        <v>0.7635034152942524</v>
       </c>
       <c r="C10">
-        <v>0.2167551523859998</v>
+        <v>0.06875798868858851</v>
       </c>
       <c r="D10">
-        <v>0.1230717476530927</v>
+        <v>0.1588308766187865</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.603569471712433</v>
+        <v>2.974863921018596</v>
       </c>
       <c r="G10">
-        <v>0.0008202813791942193</v>
+        <v>0.00255808726200424</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.595095847241623</v>
+        <v>2.441075896860838</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.373495831359776</v>
+        <v>0.6130248322872092</v>
       </c>
       <c r="L10">
-        <v>0.3110431348715395</v>
+        <v>0.3007373999034257</v>
       </c>
       <c r="M10">
-        <v>0.3200238494190089</v>
+        <v>0.2375733346582365</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.36258822401652</v>
+        <v>0.7834662609056124</v>
       </c>
       <c r="C11">
-        <v>0.2333760706180783</v>
+        <v>0.07328293031308419</v>
       </c>
       <c r="D11">
-        <v>0.1235569585364686</v>
+        <v>0.159439975377925</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.796991304425887</v>
+        <v>3.023896022989618</v>
       </c>
       <c r="G11">
-        <v>0.0008150493406836503</v>
+        <v>0.002555260478318111</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.714327877472101</v>
+        <v>2.471893475739492</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.482172257864704</v>
+        <v>0.6373089250557484</v>
       </c>
       <c r="L11">
-        <v>0.3298868035797682</v>
+        <v>0.3046662850887429</v>
       </c>
       <c r="M11">
-        <v>0.3433040970443457</v>
+        <v>0.2423221155727475</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.400012186861318</v>
+        <v>0.7911086085750014</v>
       </c>
       <c r="C12">
-        <v>0.2397356474582324</v>
+        <v>0.0749948352668639</v>
       </c>
       <c r="D12">
-        <v>0.1237414023830681</v>
+        <v>0.1596681556849973</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.871180476774782</v>
+        <v>3.042589378299482</v>
       </c>
       <c r="G12">
-        <v>0.000813079286272486</v>
+        <v>0.002554210028412474</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.760084202130429</v>
+        <v>2.48364574640253</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.523763536510188</v>
+        <v>0.6465690155852997</v>
       </c>
       <c r="L12">
-        <v>0.3371126676370579</v>
+        <v>0.3061739553231888</v>
       </c>
       <c r="M12">
-        <v>0.3522213505624308</v>
+        <v>0.2441423174378201</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.391933471813047</v>
+        <v>0.7894590069675473</v>
       </c>
       <c r="C13">
-        <v>0.2383628993168969</v>
+        <v>0.07462621493560562</v>
       </c>
       <c r="D13">
-        <v>0.1237016419003183</v>
+        <v>0.1596191225144921</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.855158591198631</v>
+        <v>3.038557818330531</v>
       </c>
       <c r="G13">
-        <v>0.0008135031026204497</v>
+        <v>0.002554435374111809</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.750201621660352</v>
+        <v>2.481111017044825</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.514785604458638</v>
+        <v>0.6445718292597746</v>
       </c>
       <c r="L13">
-        <v>0.3355522652028782</v>
+        <v>0.3058483670956207</v>
       </c>
       <c r="M13">
-        <v>0.350296133059544</v>
+        <v>0.2437493285430037</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.365658729290658</v>
+        <v>0.7840933408195099</v>
       </c>
       <c r="C14">
-        <v>0.2338978970607002</v>
+        <v>0.07342380103294488</v>
       </c>
       <c r="D14">
-        <v>0.1235721166219577</v>
+        <v>0.1594587973074368</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.803075278398495</v>
+        <v>3.025431408792826</v>
       </c>
       <c r="G14">
-        <v>0.0008148870486988928</v>
+        <v>0.00255517365706296</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.718079709578859</v>
+        <v>2.47285868999856</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.485584852678926</v>
+        <v>0.6380694697484728</v>
       </c>
       <c r="L14">
-        <v>0.3304794106858253</v>
+        <v>0.3047899234671689</v>
       </c>
       <c r="M14">
-        <v>0.3440356142424221</v>
+        <v>0.2424714249347559</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349618758859037</v>
+        <v>0.7808175059038547</v>
       </c>
       <c r="C15">
-        <v>0.231171832441575</v>
+        <v>0.07268708376732036</v>
       </c>
       <c r="D15">
-        <v>0.1234928812429956</v>
+        <v>0.1593602723024965</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.771299278119727</v>
+        <v>3.017407525126771</v>
       </c>
       <c r="G15">
-        <v>0.000815736162832048</v>
+        <v>0.002555628477163112</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.698485204744486</v>
+        <v>2.467814633905519</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.46775747574776</v>
+        <v>0.6340949580182951</v>
       </c>
       <c r="L15">
-        <v>0.3273842031526328</v>
+        <v>0.3041441860167424</v>
       </c>
       <c r="M15">
-        <v>0.3402144787075798</v>
+        <v>0.241691529510355</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258487578768097</v>
+        <v>0.762210388725947</v>
       </c>
       <c r="C16">
-        <v>0.215677510512208</v>
+        <v>0.06846204420926938</v>
       </c>
       <c r="D16">
-        <v>0.1230401171916284</v>
+        <v>0.1587907232367272</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.591054704416024</v>
+        <v>2.971677152996079</v>
       </c>
       <c r="G16">
-        <v>0.0008206249670664667</v>
+        <v>0.002558274802196561</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.587384532448127</v>
+        <v>2.439073393972279</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.366451413655568</v>
+        <v>0.6114467863751827</v>
       </c>
       <c r="L16">
-        <v>0.3098236999652926</v>
+        <v>0.3004834208771427</v>
       </c>
       <c r="M16">
-        <v>0.3185159324318647</v>
+        <v>0.2372660610945942</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.203240946438058</v>
+        <v>0.7509430652248454</v>
       </c>
       <c r="C17">
-        <v>0.2062773596041723</v>
+        <v>0.06586716375095136</v>
       </c>
       <c r="D17">
-        <v>0.122763239811416</v>
+        <v>0.1584368925329969</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.482039297079041</v>
+        <v>2.943846788606777</v>
       </c>
       <c r="G17">
-        <v>0.0008236458703976331</v>
+        <v>0.002559933955065992</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.520229451557228</v>
+        <v>2.421587779650835</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.305016800826451</v>
+        <v>0.5976670438977294</v>
       </c>
       <c r="L17">
-        <v>0.2992003463060371</v>
+        <v>0.2982730810086451</v>
       </c>
       <c r="M17">
-        <v>0.3053717284466373</v>
+        <v>0.2345902610987878</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.171690398884067</v>
+        <v>0.744516611740579</v>
       </c>
       <c r="C18">
-        <v>0.200905928632892</v>
+        <v>0.06437353519481803</v>
       </c>
       <c r="D18">
-        <v>0.1226042023735587</v>
+        <v>0.1582317418639754</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.419874001794113</v>
+        <v>2.927921537177724</v>
       </c>
       <c r="G18">
-        <v>0.000825391941239656</v>
+        <v>0.002560901415240029</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.481949555541561</v>
+        <v>2.411584120583797</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.26992437946177</v>
+        <v>0.5897831929177357</v>
       </c>
       <c r="L18">
-        <v>0.2931417937387835</v>
+        <v>0.2970147692777658</v>
       </c>
       <c r="M18">
-        <v>0.2978690396107879</v>
+        <v>0.2330655744950434</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.161045212775463</v>
+        <v>0.7423500354974237</v>
       </c>
       <c r="C19">
-        <v>0.1990930107795208</v>
+        <v>0.06386762214832231</v>
       </c>
       <c r="D19">
-        <v>0.1225503821351879</v>
+        <v>0.1581619994939416</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.398914982972798</v>
+        <v>2.922543593304908</v>
       </c>
       <c r="G19">
-        <v>0.0008259846433052369</v>
+        <v>0.002561231244171483</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.469046030556271</v>
+        <v>2.408206248057454</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.258082713483304</v>
+        <v>0.5871210451903153</v>
       </c>
       <c r="L19">
-        <v>0.2910990620945597</v>
+        <v>0.2965909623096934</v>
       </c>
       <c r="M19">
-        <v>0.2953382775728528</v>
+        <v>0.2325518086873615</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.209098308729068</v>
+        <v>0.7521368800574351</v>
       </c>
       <c r="C20">
-        <v>0.2072742965281833</v>
+        <v>0.06614350851491224</v>
       </c>
       <c r="D20">
-        <v>0.1227926892555971</v>
+        <v>0.1584747276108338</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.493587770106416</v>
+        <v>2.946800883645182</v>
       </c>
       <c r="G20">
-        <v>0.0008233234190625943</v>
+        <v>0.002559755973911946</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.527341936304452</v>
+        <v>2.42344360253378</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.311531039191095</v>
+        <v>0.5991295837973496</v>
       </c>
       <c r="L20">
-        <v>0.3003257974177842</v>
+        <v>0.2985070282255009</v>
       </c>
       <c r="M20">
-        <v>0.3067649134642636</v>
+        <v>0.2348736180968984</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.373364889114924</v>
+        <v>0.7856671182431114</v>
       </c>
       <c r="C21">
-        <v>0.2352075055684537</v>
+        <v>0.07377702146233389</v>
       </c>
       <c r="D21">
-        <v>0.1236101392921753</v>
+        <v>0.1595059555968561</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.818346823651439</v>
+        <v>3.029283530265928</v>
       </c>
       <c r="G21">
-        <v>0.0008144802601583075</v>
+        <v>0.002554956263561008</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.727497658156054</v>
+        <v>2.475280361141827</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.494149423966519</v>
+        <v>0.6399776254159804</v>
       </c>
       <c r="L21">
-        <v>0.3319668976529186</v>
+        <v>0.3051002742986242</v>
       </c>
       <c r="M21">
-        <v>0.3458716193967533</v>
+        <v>0.2428461807146576</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.483097312505549</v>
+        <v>0.8080640041364688</v>
       </c>
       <c r="C22">
-        <v>0.2538516495850445</v>
+        <v>0.07875673502641689</v>
       </c>
       <c r="D22">
-        <v>0.1241486859750225</v>
+        <v>0.1601655248192486</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.036161838012248</v>
+        <v>3.083925183865091</v>
       </c>
       <c r="G22">
-        <v>0.0008087651624817335</v>
+        <v>0.002551935854857297</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.861879762162019</v>
+        <v>2.509638701130072</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.6160862608873</v>
+        <v>0.6670486755947138</v>
       </c>
       <c r="L22">
-        <v>0.3531772810257223</v>
+        <v>0.3095252569560074</v>
       </c>
       <c r="M22">
-        <v>0.37202864080502</v>
+        <v>0.2481846041738436</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.42429500725396</v>
+        <v>0.7960661659714674</v>
       </c>
       <c r="C23">
-        <v>0.2438615678476594</v>
+        <v>0.0760997755128443</v>
       </c>
       <c r="D23">
-        <v>0.123860737455999</v>
+        <v>0.1598148092420146</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.919360359931034</v>
+        <v>3.054694508960011</v>
       </c>
       <c r="G23">
-        <v>0.0008118101155653647</v>
+        <v>0.002553537279960973</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.789805803850953</v>
+        <v>2.491256956027769</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.550748038062125</v>
+        <v>0.6525660090880194</v>
       </c>
       <c r="L23">
-        <v>0.3418046746278094</v>
+        <v>0.3071529541162477</v>
       </c>
       <c r="M23">
-        <v>0.3580089261601245</v>
+        <v>0.2453236848927389</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.206449540411569</v>
+        <v>0.7515969966415526</v>
       </c>
       <c r="C24">
-        <v>0.206823479839116</v>
+        <v>0.06601857865464922</v>
       </c>
       <c r="D24">
-        <v>0.1227793747417394</v>
+        <v>0.1584576277582705</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.488365128003409</v>
+        <v>2.945465104334801</v>
       </c>
       <c r="G24">
-        <v>0.0008234691701993959</v>
+        <v>0.00255983639678172</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.524125364104464</v>
+        <v>2.422604432235829</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.3085852489655</v>
+        <v>0.5984682502073326</v>
       </c>
       <c r="L24">
-        <v>0.2998168292404131</v>
+        <v>0.2984012219346965</v>
       </c>
       <c r="M24">
-        <v>0.3061348869649123</v>
+        <v>0.2347454698294413</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9799353335410785</v>
+        <v>0.7057022077770512</v>
       </c>
       <c r="C25">
-        <v>0.1681876133413738</v>
+        <v>0.05510099620803999</v>
       </c>
       <c r="D25">
-        <v>0.1216200795610796</v>
+        <v>0.1569310064576435</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.04365463167764</v>
+        <v>2.830777186934682</v>
       </c>
       <c r="G25">
-        <v>0.0008363767647831281</v>
+        <v>0.002567134571215265</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.250544996273561</v>
+        <v>2.350599056231729</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.056476676909654</v>
+        <v>0.5417156448772005</v>
       </c>
       <c r="L25">
-        <v>0.2564705936948144</v>
+        <v>0.2894587039817651</v>
       </c>
       <c r="M25">
-        <v>0.2523390565648924</v>
+        <v>0.2238842340342657</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6736822784194203</v>
+        <v>0.8187158633527645</v>
       </c>
       <c r="C2">
-        <v>0.04701910973241752</v>
+        <v>0.140526943819566</v>
       </c>
       <c r="D2">
-        <v>0.1557518569709586</v>
+        <v>0.1207614396678736</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.748984386832774</v>
+        <v>2.729880086358094</v>
       </c>
       <c r="G2">
-        <v>0.002572946102940586</v>
+        <v>0.0008462213063213673</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.299314050442433</v>
+        <v>2.057971948607218</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5012868498830585</v>
+        <v>0.8766981984126119</v>
       </c>
       <c r="L2">
-        <v>0.2833004938980537</v>
+        <v>0.2258911411741593</v>
       </c>
       <c r="M2">
-        <v>0.2163571954158172</v>
+        <v>0.2141759522926598</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6530833930316362</v>
+        <v>0.7121757173640333</v>
       </c>
       <c r="C3">
-        <v>0.04151202104242202</v>
+        <v>0.1221229595829669</v>
       </c>
       <c r="D3">
-        <v>0.1549177614188153</v>
+        <v>0.1201714745064457</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.695186271732894</v>
+        <v>2.524137410974646</v>
       </c>
       <c r="G3">
-        <v>0.002577160240339763</v>
+        <v>0.0008531301939472278</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.265624877563482</v>
+        <v>1.931977524854702</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4747265185326341</v>
+        <v>0.7576468848978664</v>
       </c>
       <c r="L3">
-        <v>0.279392074124587</v>
+        <v>0.2058532475470329</v>
       </c>
       <c r="M3">
-        <v>0.2115483829487523</v>
+        <v>0.1890356676561105</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6409779543314187</v>
+        <v>0.6478802210575907</v>
       </c>
       <c r="C4">
-        <v>0.03811500282337477</v>
+        <v>0.1109478854286721</v>
       </c>
       <c r="D4">
-        <v>0.1543881762033124</v>
+        <v>0.1198037986573333</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.662954077801047</v>
+        <v>2.400737701572623</v>
       </c>
       <c r="G4">
-        <v>0.002579884480801597</v>
+        <v>0.0008574965948776656</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.24546214786335</v>
+        <v>1.856542519637074</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4588297901373153</v>
+        <v>0.6856695620578677</v>
       </c>
       <c r="L4">
-        <v>0.277122879091209</v>
+        <v>0.1938446326789034</v>
       </c>
       <c r="M4">
-        <v>0.2087397795686883</v>
+        <v>0.1739032581242377</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6361812959574138</v>
+        <v>0.6219311020605005</v>
       </c>
       <c r="C5">
-        <v>0.03672665032969746</v>
+        <v>0.1064194910934617</v>
       </c>
       <c r="D5">
-        <v>0.1541679517578629</v>
+        <v>0.1196523998766494</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.650019860929348</v>
+        <v>2.351122152310623</v>
       </c>
       <c r="G5">
-        <v>0.002581029127692647</v>
+        <v>0.00085930820164012</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.237376714334374</v>
+        <v>1.826245515203851</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4524550374576393</v>
+        <v>0.6565856259827001</v>
       </c>
       <c r="L5">
-        <v>0.2762310108582682</v>
+        <v>0.1890191927522054</v>
       </c>
       <c r="M5">
-        <v>0.2076314803635846</v>
+        <v>0.1678058963917763</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6353930539964949</v>
+        <v>0.6176366435447846</v>
       </c>
       <c r="C6">
-        <v>0.03649586835526009</v>
+        <v>0.1056689327620717</v>
       </c>
       <c r="D6">
-        <v>0.1541311162591121</v>
+        <v>0.1196271598781067</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.647884248627477</v>
+        <v>2.342922221152619</v>
       </c>
       <c r="G6">
-        <v>0.002581221282309881</v>
+        <v>0.000859610994287615</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.236042038470941</v>
+        <v>1.821240353547495</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4514027487011418</v>
+        <v>0.6517702438779622</v>
       </c>
       <c r="L6">
-        <v>0.2760849009998694</v>
+        <v>0.188221883015828</v>
       </c>
       <c r="M6">
-        <v>0.2074496367078211</v>
+        <v>0.1667974141109276</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6409127125783698</v>
+        <v>0.647529280641379</v>
       </c>
       <c r="C7">
-        <v>0.03809629551319915</v>
+        <v>0.1108867180010975</v>
       </c>
       <c r="D7">
-        <v>0.1543852240882053</v>
+        <v>0.1198017634459454</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.662778830649415</v>
+        <v>2.400065935752622</v>
       </c>
       <c r="G7">
-        <v>0.002579899778313908</v>
+        <v>0.0008575208948590143</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.245352574779929</v>
+        <v>1.856132180588659</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4587433999731303</v>
+        <v>0.6852763678747493</v>
       </c>
       <c r="L7">
-        <v>0.2771107180337964</v>
+        <v>0.1937792866674215</v>
       </c>
       <c r="M7">
-        <v>0.2087246859482796</v>
+        <v>0.1738207558435576</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6664672201443125</v>
+        <v>0.781729511910612</v>
       </c>
       <c r="C8">
-        <v>0.04512344680745173</v>
+        <v>0.1341515987218003</v>
       </c>
       <c r="D8">
-        <v>0.1554678657215796</v>
+        <v>0.1205590224950299</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.730268409951563</v>
+        <v>2.658291781251265</v>
       </c>
       <c r="G8">
-        <v>0.002574370823899303</v>
+        <v>0.0008485783130270235</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.287589337815987</v>
+        <v>2.014103757630195</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4920433475584787</v>
+        <v>0.8353952030172991</v>
       </c>
       <c r="L8">
-        <v>0.2819257700670761</v>
+        <v>0.218917193662918</v>
       </c>
       <c r="M8">
-        <v>0.2146692291262262</v>
+        <v>0.2054400358502235</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7208860437933424</v>
+        <v>1.055265754290133</v>
       </c>
       <c r="C9">
-        <v>0.05878493960253195</v>
+        <v>0.1810585566472582</v>
       </c>
       <c r="D9">
-        <v>0.1574537317075446</v>
+        <v>0.1220106764869939</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.868995348567211</v>
+        <v>3.191102514922051</v>
       </c>
       <c r="G9">
-        <v>0.002564608465560501</v>
+        <v>0.000831979384267885</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.374583267805036</v>
+        <v>2.341179430931135</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5606207473991844</v>
+        <v>1.140368034323444</v>
       </c>
       <c r="L9">
-        <v>0.2924047009526589</v>
+        <v>0.2708432560313412</v>
       </c>
       <c r="M9">
-        <v>0.2274697141421029</v>
+        <v>0.2702099677931571</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7635034152942524</v>
+        <v>1.264823380976793</v>
       </c>
       <c r="C10">
-        <v>0.06875798868858851</v>
+        <v>0.216755152386483</v>
       </c>
       <c r="D10">
-        <v>0.1588308766187865</v>
+        <v>0.1230717476528476</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.974863921018596</v>
+        <v>3.603569471712461</v>
       </c>
       <c r="G10">
-        <v>0.00255808726200424</v>
+        <v>0.0008202813792372865</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.441075896860838</v>
+        <v>2.595095847241595</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6130248322872092</v>
+        <v>1.373495831359747</v>
       </c>
       <c r="L10">
-        <v>0.3007373999034257</v>
+        <v>0.3110431348716816</v>
       </c>
       <c r="M10">
-        <v>0.2375733346582365</v>
+        <v>0.3200238494189946</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7834662609056124</v>
+        <v>1.362588224016321</v>
       </c>
       <c r="C11">
-        <v>0.07328293031308419</v>
+        <v>0.2333760706183341</v>
       </c>
       <c r="D11">
-        <v>0.159439975377925</v>
+        <v>0.123556958536426</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.023896022989618</v>
+        <v>3.796991304425887</v>
       </c>
       <c r="G11">
-        <v>0.002555260478318111</v>
+        <v>0.0008150493407354401</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.471893475739492</v>
+        <v>2.714327877472115</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6373089250557484</v>
+        <v>1.482172257864761</v>
       </c>
       <c r="L11">
-        <v>0.3046662850887429</v>
+        <v>0.3298868035796403</v>
       </c>
       <c r="M11">
-        <v>0.2423221155727475</v>
+        <v>0.3433040970443315</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7911086085750014</v>
+        <v>1.400012186861375</v>
       </c>
       <c r="C12">
-        <v>0.0749948352668639</v>
+        <v>0.2397356474577208</v>
       </c>
       <c r="D12">
-        <v>0.1596681556849973</v>
+        <v>0.1237414023832315</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.042589378299482</v>
+        <v>3.871180476774839</v>
       </c>
       <c r="G12">
-        <v>0.002554210028412474</v>
+        <v>0.0008130792863503987</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.48364574640253</v>
+        <v>2.760084202130429</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6465690155852997</v>
+        <v>1.52376353651016</v>
       </c>
       <c r="L12">
-        <v>0.3061739553231888</v>
+        <v>0.3371126676370295</v>
       </c>
       <c r="M12">
-        <v>0.2441423174378201</v>
+        <v>0.3522213505623952</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7894590069675473</v>
+        <v>1.391933471813019</v>
       </c>
       <c r="C13">
-        <v>0.07462621493560562</v>
+        <v>0.2383628993169111</v>
       </c>
       <c r="D13">
-        <v>0.1596191225144921</v>
+        <v>0.123701641900702</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.038557818330531</v>
+        <v>3.855158591198631</v>
       </c>
       <c r="G13">
-        <v>0.002554435374111809</v>
+        <v>0.0008135031026636004</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.481111017044825</v>
+        <v>2.750201621660324</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6445718292597746</v>
+        <v>1.514785604458552</v>
       </c>
       <c r="L13">
-        <v>0.3058483670956207</v>
+        <v>0.335552265203134</v>
       </c>
       <c r="M13">
-        <v>0.2437493285430037</v>
+        <v>0.3502961330595653</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7840933408195099</v>
+        <v>1.365658729290629</v>
       </c>
       <c r="C14">
-        <v>0.07342380103294488</v>
+        <v>0.233897897060956</v>
       </c>
       <c r="D14">
-        <v>0.1594587973074368</v>
+        <v>0.1235721166220145</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.025431408792826</v>
+        <v>3.803075278398524</v>
       </c>
       <c r="G14">
-        <v>0.00255517365706296</v>
+        <v>0.0008148870487518317</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.47285868999856</v>
+        <v>2.718079709578859</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6380694697484728</v>
+        <v>1.485584852679011</v>
       </c>
       <c r="L14">
-        <v>0.3047899234671689</v>
+        <v>0.33047941068574</v>
       </c>
       <c r="M14">
-        <v>0.2424714249347559</v>
+        <v>0.3440356142424505</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7808175059038547</v>
+        <v>1.349618758859123</v>
       </c>
       <c r="C15">
-        <v>0.07268708376732036</v>
+        <v>0.2311718324415892</v>
       </c>
       <c r="D15">
-        <v>0.1593602723024965</v>
+        <v>0.1234928812427682</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.017407525126771</v>
+        <v>3.771299278119727</v>
       </c>
       <c r="G15">
-        <v>0.002555628477163112</v>
+        <v>0.0008157361628336682</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.467814633905519</v>
+        <v>2.698485204744486</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6340949580182951</v>
+        <v>1.467757475747788</v>
       </c>
       <c r="L15">
-        <v>0.3041441860167424</v>
+        <v>0.3273842031525902</v>
       </c>
       <c r="M15">
-        <v>0.241691529510355</v>
+        <v>0.3402144787075727</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.762210388725947</v>
+        <v>1.258487578768069</v>
       </c>
       <c r="C16">
-        <v>0.06846204420926938</v>
+        <v>0.2156775105122222</v>
       </c>
       <c r="D16">
-        <v>0.1587907232367272</v>
+        <v>0.1230401171917137</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.971677152996079</v>
+        <v>3.591054704416024</v>
       </c>
       <c r="G16">
-        <v>0.002558274802196561</v>
+        <v>0.000820624967058029</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.439073393972279</v>
+        <v>2.587384532448155</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6114467863751827</v>
+        <v>1.366451413655483</v>
       </c>
       <c r="L16">
-        <v>0.3004834208771427</v>
+        <v>0.3098236999652499</v>
       </c>
       <c r="M16">
-        <v>0.2372660610945942</v>
+        <v>0.3185159324318647</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7509430652248454</v>
+        <v>1.2032409464382</v>
       </c>
       <c r="C17">
-        <v>0.06586716375095136</v>
+        <v>0.2062773596041723</v>
       </c>
       <c r="D17">
-        <v>0.1584368925329969</v>
+        <v>0.1227632398111709</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.943846788606777</v>
+        <v>3.482039297079041</v>
       </c>
       <c r="G17">
-        <v>0.002559933955065992</v>
+        <v>0.0008236458704440154</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.421587779650835</v>
+        <v>2.520229451557242</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5976670438977294</v>
+        <v>1.305016800826479</v>
       </c>
       <c r="L17">
-        <v>0.2982730810086451</v>
+        <v>0.2992003463059518</v>
       </c>
       <c r="M17">
-        <v>0.2345902610987878</v>
+        <v>0.3053717284466444</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.744516611740579</v>
+        <v>1.171690398883982</v>
       </c>
       <c r="C18">
-        <v>0.06437353519481803</v>
+        <v>0.2009059286330626</v>
       </c>
       <c r="D18">
-        <v>0.1582317418639754</v>
+        <v>0.1226042023732639</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.927921537177724</v>
+        <v>3.419874001794085</v>
       </c>
       <c r="G18">
-        <v>0.002560901415240029</v>
+        <v>0.0008253919413560073</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.411584120583797</v>
+        <v>2.48194955554159</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5897831929177357</v>
+        <v>1.269924379461855</v>
       </c>
       <c r="L18">
-        <v>0.2970147692777658</v>
+        <v>0.2931417937386271</v>
       </c>
       <c r="M18">
-        <v>0.2330655744950434</v>
+        <v>0.2978690396108021</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7423500354974237</v>
+        <v>1.161045212775292</v>
       </c>
       <c r="C19">
-        <v>0.06386762214832231</v>
+        <v>0.1990930107792508</v>
       </c>
       <c r="D19">
-        <v>0.1581619994939416</v>
+        <v>0.1225503821352021</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.922543593304908</v>
+        <v>3.398914982972798</v>
       </c>
       <c r="G19">
-        <v>0.002561231244171483</v>
+        <v>0.0008259846432353348</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.408206248057454</v>
+        <v>2.469046030556299</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5871210451903153</v>
+        <v>1.258082713483191</v>
       </c>
       <c r="L19">
-        <v>0.2965909623096934</v>
+        <v>0.2910990620944034</v>
       </c>
       <c r="M19">
-        <v>0.2325518086873615</v>
+        <v>0.295338277572867</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7521368800574351</v>
+        <v>1.209098308729125</v>
       </c>
       <c r="C20">
-        <v>0.06614350851491224</v>
+        <v>0.2072742965281975</v>
       </c>
       <c r="D20">
-        <v>0.1584747276108338</v>
+        <v>0.1227926892554514</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.946800883645182</v>
+        <v>3.493587770106473</v>
       </c>
       <c r="G20">
-        <v>0.002559755973911946</v>
+        <v>0.0008233234190588694</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.42344360253378</v>
+        <v>2.527341936304452</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5991295837973496</v>
+        <v>1.311531039191067</v>
       </c>
       <c r="L20">
-        <v>0.2985070282255009</v>
+        <v>0.3003257974178268</v>
       </c>
       <c r="M20">
-        <v>0.2348736180968984</v>
+        <v>0.3067649134642494</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7856671182431114</v>
+        <v>1.373364889114782</v>
       </c>
       <c r="C21">
-        <v>0.07377702146233389</v>
+        <v>0.2352075055681411</v>
       </c>
       <c r="D21">
-        <v>0.1595059555968561</v>
+        <v>0.1236101392919835</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.029283530265928</v>
+        <v>3.818346823651467</v>
       </c>
       <c r="G21">
-        <v>0.002554956263561008</v>
+        <v>0.0008144802600803914</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.475280361141827</v>
+        <v>2.72749765815604</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6399776254159804</v>
+        <v>1.494149423966547</v>
       </c>
       <c r="L21">
-        <v>0.3051002742986242</v>
+        <v>0.3319668976529471</v>
       </c>
       <c r="M21">
-        <v>0.2428461807146576</v>
+        <v>0.3458716193967604</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8080640041364688</v>
+        <v>1.483097312505635</v>
       </c>
       <c r="C22">
-        <v>0.07875673502641689</v>
+        <v>0.2538516495852861</v>
       </c>
       <c r="D22">
-        <v>0.1601655248192486</v>
+        <v>0.1241486859750012</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.083925183865091</v>
+        <v>4.036161838012305</v>
       </c>
       <c r="G22">
-        <v>0.002551935854857297</v>
+        <v>0.000808765162478525</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.509638701130072</v>
+        <v>2.861879762162033</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6670486755947138</v>
+        <v>1.616086260887357</v>
       </c>
       <c r="L22">
-        <v>0.3095252569560074</v>
+        <v>0.3531772810257081</v>
       </c>
       <c r="M22">
-        <v>0.2481846041738436</v>
+        <v>0.3720286408050129</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7960661659714674</v>
+        <v>1.424295007253903</v>
       </c>
       <c r="C23">
-        <v>0.0760997755128443</v>
+        <v>0.243861567847631</v>
       </c>
       <c r="D23">
-        <v>0.1598148092420146</v>
+        <v>0.1238607374559777</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.054694508960011</v>
+        <v>3.919360359931034</v>
       </c>
       <c r="G23">
-        <v>0.002553537279960973</v>
+        <v>0.0008118101156201695</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.491256956027769</v>
+        <v>2.789805803850967</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6525660090880194</v>
+        <v>1.550748038062125</v>
       </c>
       <c r="L23">
-        <v>0.3071529541162477</v>
+        <v>0.3418046746278947</v>
       </c>
       <c r="M23">
-        <v>0.2453236848927389</v>
+        <v>0.3580089261601316</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7515969966415526</v>
+        <v>1.206449540411683</v>
       </c>
       <c r="C24">
-        <v>0.06601857865464922</v>
+        <v>0.2068234798391444</v>
       </c>
       <c r="D24">
-        <v>0.1584576277582705</v>
+        <v>0.1227793747418247</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.945465104334801</v>
+        <v>3.488365128003437</v>
       </c>
       <c r="G24">
-        <v>0.00255983639678172</v>
+        <v>0.0008234691702525475</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.422604432235829</v>
+        <v>2.524125364104449</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5984682502073326</v>
+        <v>1.308585248965443</v>
       </c>
       <c r="L24">
-        <v>0.2984012219346965</v>
+        <v>0.299816829240271</v>
       </c>
       <c r="M24">
-        <v>0.2347454698294413</v>
+        <v>0.3061348869649123</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7057022077770512</v>
+        <v>0.9799353335411354</v>
       </c>
       <c r="C25">
-        <v>0.05510099620803999</v>
+        <v>0.1681876133420985</v>
       </c>
       <c r="D25">
-        <v>0.1569310064576435</v>
+        <v>0.1216200795609268</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.830777186934682</v>
+        <v>3.043654631677697</v>
       </c>
       <c r="G25">
-        <v>0.002567134571215265</v>
+        <v>0.00083637676477713</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.350599056231729</v>
+        <v>2.25054499627359</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5417156448772005</v>
+        <v>1.056476676909597</v>
       </c>
       <c r="L25">
-        <v>0.2894587039817651</v>
+        <v>0.2564705936948144</v>
       </c>
       <c r="M25">
-        <v>0.2238842340342657</v>
+        <v>0.2523390565648995</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8187158633527645</v>
+        <v>1.889389132529345</v>
       </c>
       <c r="C2">
-        <v>0.140526943819566</v>
+        <v>0.5079095567926259</v>
       </c>
       <c r="D2">
-        <v>0.1207614396678736</v>
+        <v>0.06129743010614419</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.729880086358094</v>
+        <v>0.4048085437720985</v>
       </c>
       <c r="G2">
-        <v>0.0008462213063213673</v>
+        <v>0.2977350310525679</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0006806236807893606</v>
       </c>
       <c r="I2">
-        <v>2.057971948607218</v>
+        <v>0.0008362673304249668</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2469045644364272</v>
       </c>
       <c r="K2">
-        <v>0.8766981984126119</v>
+        <v>0.2617545172485265</v>
       </c>
       <c r="L2">
-        <v>0.2258911411741593</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2141759522926598</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2389284557809788</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3571613782975191</v>
+      </c>
+      <c r="P2">
+        <v>0.8673135566698136</v>
+      </c>
+      <c r="Q2">
+        <v>1.097949294607474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7121757173640333</v>
+        <v>1.646433815272502</v>
       </c>
       <c r="C3">
-        <v>0.1221229595829669</v>
+        <v>0.4735186183203695</v>
       </c>
       <c r="D3">
-        <v>0.1201714745064457</v>
+        <v>0.05407463131768964</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.524137410974646</v>
+        <v>0.3740947387595455</v>
       </c>
       <c r="G3">
-        <v>0.0008531301939472278</v>
+        <v>0.2757977620456415</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001338234407943117</v>
       </c>
       <c r="I3">
-        <v>1.931977524854702</v>
+        <v>0.0004981879040819592</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2404054300429337</v>
       </c>
       <c r="K3">
-        <v>0.7576468848978664</v>
+        <v>0.2616098290220634</v>
       </c>
       <c r="L3">
-        <v>0.2058532475470329</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1890356676561105</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2188276492304269</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3126025191139021</v>
+      </c>
+      <c r="P3">
+        <v>0.8696042685099954</v>
+      </c>
+      <c r="Q3">
+        <v>1.037569847431115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6478802210575907</v>
+        <v>1.49658083701533</v>
       </c>
       <c r="C4">
-        <v>0.1109478854286721</v>
+        <v>0.4524220849883136</v>
       </c>
       <c r="D4">
-        <v>0.1198037986573333</v>
+        <v>0.0496449960333436</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.400737701572623</v>
+        <v>0.3556087556575633</v>
       </c>
       <c r="G4">
-        <v>0.0008574965948776656</v>
+        <v>0.2626153046145276</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00187209760111573</v>
       </c>
       <c r="I4">
-        <v>1.856542519637074</v>
+        <v>0.0004300215572894395</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.236633405015013</v>
       </c>
       <c r="K4">
-        <v>0.6856695620578677</v>
+        <v>0.2617305369775664</v>
       </c>
       <c r="L4">
-        <v>0.1938446326789034</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1739032581242377</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2064757837916815</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2851623759227095</v>
+      </c>
+      <c r="P4">
+        <v>0.8716623020759542</v>
+      </c>
+      <c r="Q4">
+        <v>1.001554938911525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6219311020605005</v>
+        <v>1.434511641539473</v>
       </c>
       <c r="C5">
-        <v>0.1064194910934617</v>
+        <v>0.4442527489044181</v>
       </c>
       <c r="D5">
-        <v>0.1196523998766494</v>
+        <v>0.04788325585911934</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.351122152310623</v>
+        <v>0.3478660599512722</v>
       </c>
       <c r="G5">
-        <v>0.00085930820164012</v>
+        <v>0.2570135959277522</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002122583363968755</v>
       </c>
       <c r="I5">
-        <v>1.826245515203851</v>
+        <v>0.0005003555315759023</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2349960806231266</v>
       </c>
       <c r="K5">
-        <v>0.6565856259827001</v>
+        <v>0.2615835562719298</v>
       </c>
       <c r="L5">
-        <v>0.1890191927522054</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1678058963917763</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2014530416122327</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2738563505165068</v>
+      </c>
+      <c r="P5">
+        <v>0.8729694471528475</v>
+      </c>
+      <c r="Q5">
+        <v>0.9861795520722012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6176366435447846</v>
+        <v>1.423176932104326</v>
       </c>
       <c r="C6">
-        <v>0.1056689327620717</v>
+        <v>0.4434193896955207</v>
       </c>
       <c r="D6">
-        <v>0.1196271598781067</v>
+        <v>0.04764290220459344</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.342922221152619</v>
+        <v>0.3462213624190227</v>
       </c>
       <c r="G6">
-        <v>0.000859610994287615</v>
+        <v>0.2557237598064077</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002168027430815789</v>
       </c>
       <c r="I6">
-        <v>1.821240353547495</v>
+        <v>0.0006005647233360278</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2345400510588647</v>
       </c>
       <c r="K6">
-        <v>0.6517702438779622</v>
+        <v>0.2612603567240939</v>
       </c>
       <c r="L6">
-        <v>0.188221883015828</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1667974141109276</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2006365248061428</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2718517144456278</v>
+      </c>
+      <c r="P6">
+        <v>0.8735759341710505</v>
+      </c>
+      <c r="Q6">
+        <v>0.9824780352217886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.647529280641379</v>
+        <v>1.492955200967941</v>
       </c>
       <c r="C7">
-        <v>0.1108867180010975</v>
+        <v>0.4537469497121123</v>
       </c>
       <c r="D7">
-        <v>0.1198017634459454</v>
+        <v>0.04976407963706464</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.400065935752622</v>
+        <v>0.3545083235713378</v>
       </c>
       <c r="G7">
-        <v>0.0008575208948590143</v>
+        <v>0.2615453274881148</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001880287098656841</v>
       </c>
       <c r="I7">
-        <v>1.856132180588659</v>
+        <v>0.0006523556460518165</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2360997414837342</v>
       </c>
       <c r="K7">
-        <v>0.6852763678747493</v>
+        <v>0.2609047284781667</v>
       </c>
       <c r="L7">
-        <v>0.1937792866674215</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1738207558435576</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2064574426696879</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2846648554420312</v>
+      </c>
+      <c r="P7">
+        <v>0.8727304969197647</v>
+      </c>
+      <c r="Q7">
+        <v>0.998167659250214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.781729511910612</v>
+        <v>1.8020288142543</v>
       </c>
       <c r="C8">
-        <v>0.1341515987218003</v>
+        <v>0.4979748076980997</v>
       </c>
       <c r="D8">
-        <v>0.1205590224950299</v>
+        <v>0.05899660717688704</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.658291781251265</v>
+        <v>0.3928170095563388</v>
       </c>
       <c r="G8">
-        <v>0.0008485783130270235</v>
+        <v>0.2887900324558856</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0008837173829783218</v>
       </c>
       <c r="I8">
-        <v>2.014103757630195</v>
+        <v>0.0009553642417658992</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2439415864394547</v>
       </c>
       <c r="K8">
-        <v>0.8353952030172991</v>
+        <v>0.2605753801240702</v>
       </c>
       <c r="L8">
-        <v>0.218917193662918</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2054400358502235</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.232068101646739</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3413528062956956</v>
+      </c>
+      <c r="P8">
+        <v>0.8694166371887349</v>
+      </c>
+      <c r="Q8">
+        <v>1.072691827466841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.055265754290133</v>
+        <v>2.407895445816166</v>
       </c>
       <c r="C9">
-        <v>0.1810585566472582</v>
+        <v>0.5824098133155076</v>
       </c>
       <c r="D9">
-        <v>0.1220106764869939</v>
+        <v>0.07690722360099045</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.191102514922051</v>
+        <v>0.4729424647795284</v>
       </c>
       <c r="G9">
-        <v>0.000831979384267885</v>
+        <v>0.3464998265561405</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.297738842149677E-05</v>
       </c>
       <c r="I9">
-        <v>2.341179430931135</v>
+        <v>0.002402815801495706</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2620607322608208</v>
       </c>
       <c r="K9">
-        <v>1.140368034323444</v>
+        <v>0.2631409503490438</v>
       </c>
       <c r="L9">
-        <v>0.2708432560313412</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2702099677931571</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2821760953392811</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4525414775084755</v>
+      </c>
+      <c r="P9">
+        <v>0.8663135873083476</v>
+      </c>
+      <c r="Q9">
+        <v>1.233592577340005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.264823380976793</v>
+        <v>2.839763663659539</v>
       </c>
       <c r="C10">
-        <v>0.216755152386483</v>
+        <v>0.6528398526891692</v>
       </c>
       <c r="D10">
-        <v>0.1230717476528476</v>
+        <v>0.09090883845887276</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.603569471712461</v>
+        <v>0.5289845089432674</v>
       </c>
       <c r="G10">
-        <v>0.0008202813792372865</v>
+        <v>0.3855951325389668</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0003112697228511152</v>
       </c>
       <c r="I10">
-        <v>2.595095847241595</v>
+        <v>0.00437687122762398</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2740204381752278</v>
       </c>
       <c r="K10">
-        <v>1.373495831359747</v>
+        <v>0.2620882015307089</v>
       </c>
       <c r="L10">
-        <v>0.3110431348716816</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3200238494189946</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3028500025435648</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5231978250539626</v>
+      </c>
+      <c r="P10">
+        <v>0.8748296439574688</v>
+      </c>
+      <c r="Q10">
+        <v>1.341932221272941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.362588224016321</v>
+        <v>2.953530843644614</v>
       </c>
       <c r="C11">
-        <v>0.2333760706183341</v>
+        <v>0.7556829813053128</v>
       </c>
       <c r="D11">
-        <v>0.123556958536426</v>
+        <v>0.1038667798574693</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.796991304425887</v>
+        <v>0.5130058786951395</v>
       </c>
       <c r="G11">
-        <v>0.0008150493407354401</v>
+        <v>0.3623166898064625</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01883163034753466</v>
       </c>
       <c r="I11">
-        <v>2.714327877472115</v>
+        <v>0.005458270055742176</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2586784142003182</v>
       </c>
       <c r="K11">
-        <v>1.482172257864761</v>
+        <v>0.2298865616730943</v>
       </c>
       <c r="L11">
-        <v>0.3298868035796403</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3433040970443315</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1926173619794795</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.465629665130642</v>
+      </c>
+      <c r="P11">
+        <v>0.9455045911217468</v>
+      </c>
+      <c r="Q11">
+        <v>1.260635294286743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.400012186861375</v>
+        <v>2.96165678597913</v>
       </c>
       <c r="C12">
-        <v>0.2397356474577208</v>
+        <v>0.8321548944504684</v>
       </c>
       <c r="D12">
-        <v>0.1237414023832315</v>
+        <v>0.1119660315609394</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.871180476774839</v>
+        <v>0.4890201944332233</v>
       </c>
       <c r="G12">
-        <v>0.0008130792863503987</v>
+        <v>0.3362648427335273</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05745674392463229</v>
       </c>
       <c r="I12">
-        <v>2.760084202130429</v>
+        <v>0.005568335175292205</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2440026181743349</v>
       </c>
       <c r="K12">
-        <v>1.52376353651016</v>
+        <v>0.2058842139850192</v>
       </c>
       <c r="L12">
-        <v>0.3371126676370295</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3522213505623952</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1238499633474923</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4059926627517854</v>
+      </c>
+      <c r="P12">
+        <v>1.009101361781518</v>
+      </c>
+      <c r="Q12">
+        <v>1.174744966411367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.391933471813019</v>
+        <v>2.88446462795082</v>
       </c>
       <c r="C13">
-        <v>0.2383628993169111</v>
+        <v>0.8941516450762492</v>
       </c>
       <c r="D13">
-        <v>0.123701641900702</v>
+        <v>0.1169382290768652</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.855158591198631</v>
+        <v>0.4557873799273509</v>
       </c>
       <c r="G13">
-        <v>0.0008135031026636004</v>
+        <v>0.3049263359647512</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.113150863484492</v>
       </c>
       <c r="I13">
-        <v>2.750201621660324</v>
+        <v>0.005241650620326332</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.228121136656128</v>
       </c>
       <c r="K13">
-        <v>1.514785604458552</v>
+        <v>0.1854229977477573</v>
       </c>
       <c r="L13">
-        <v>0.335552265203134</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3502961330595653</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08286220350549556</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3411478644088461</v>
+      </c>
+      <c r="P13">
+        <v>1.071303961551706</v>
+      </c>
+      <c r="Q13">
+        <v>1.075042227431993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.365658729290629</v>
+        <v>2.791205826159853</v>
       </c>
       <c r="C14">
-        <v>0.233897897060956</v>
+        <v>0.9319303981940834</v>
       </c>
       <c r="D14">
-        <v>0.1235721166220145</v>
+        <v>0.1190537896788015</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.803075278398524</v>
+        <v>0.4282498361777414</v>
       </c>
       <c r="G14">
-        <v>0.0008148870487518317</v>
+        <v>0.280572838646215</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624624828415762</v>
       </c>
       <c r="I14">
-        <v>2.718079709578859</v>
+        <v>0.004903621314229056</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2164189754094608</v>
       </c>
       <c r="K14">
-        <v>1.485584852679011</v>
+        <v>0.1728451403414404</v>
       </c>
       <c r="L14">
-        <v>0.33047941068574</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3440356142424505</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0705893693192447</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2941987464931231</v>
+      </c>
+      <c r="P14">
+        <v>1.114989276650832</v>
+      </c>
+      <c r="Q14">
+        <v>0.9988652609814324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349618758859123</v>
+        <v>2.749458313520563</v>
       </c>
       <c r="C15">
-        <v>0.2311718324415892</v>
+        <v>0.9378379777076873</v>
       </c>
       <c r="D15">
-        <v>0.1234928812427682</v>
+        <v>0.1189118840280088</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.771299278119727</v>
+        <v>0.4192850138103665</v>
       </c>
       <c r="G15">
-        <v>0.0008157361628336682</v>
+        <v>0.2731810551797125</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749579920127644</v>
       </c>
       <c r="I15">
-        <v>2.698485204744486</v>
+        <v>0.004833414092444421</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2131546325048603</v>
       </c>
       <c r="K15">
-        <v>1.467757475747788</v>
+        <v>0.1701295131125828</v>
       </c>
       <c r="L15">
-        <v>0.3273842031525902</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3402144787075727</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06976424952214577</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2812404268249082</v>
+      </c>
+      <c r="P15">
+        <v>1.124826107876757</v>
+      </c>
+      <c r="Q15">
+        <v>0.9763305240590938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258487578768069</v>
+        <v>2.579295232443371</v>
       </c>
       <c r="C16">
-        <v>0.2156775105122222</v>
+        <v>0.8934641035775428</v>
       </c>
       <c r="D16">
-        <v>0.1230401171917137</v>
+        <v>0.1117556282624435</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.591054704416024</v>
+        <v>0.4013500338316121</v>
       </c>
       <c r="G16">
-        <v>0.000820624967058029</v>
+        <v>0.2622653514764579</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621524124725937</v>
       </c>
       <c r="I16">
-        <v>2.587384532448155</v>
+        <v>0.004121397908599</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2108745794303601</v>
       </c>
       <c r="K16">
-        <v>1.366451413655483</v>
+        <v>0.1742098897298074</v>
       </c>
       <c r="L16">
-        <v>0.3098236999652499</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3185159324318647</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07006991808881491</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2657131248319757</v>
+      </c>
+      <c r="P16">
+        <v>1.105154513486113</v>
+      </c>
+      <c r="Q16">
+        <v>0.9482397310076891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2032409464382</v>
+        <v>2.498210480535363</v>
       </c>
       <c r="C17">
-        <v>0.2062773596041723</v>
+        <v>0.8393169233920901</v>
       </c>
       <c r="D17">
-        <v>0.1227632398111709</v>
+        <v>0.1051660179812757</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.482039297079041</v>
+        <v>0.4022456915701511</v>
       </c>
       <c r="G17">
-        <v>0.0008236458704440154</v>
+        <v>0.266777973244352</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243403535361551</v>
       </c>
       <c r="I17">
-        <v>2.520229451557242</v>
+        <v>0.003791670551048121</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2153520758972078</v>
       </c>
       <c r="K17">
-        <v>1.305016800826479</v>
+        <v>0.1838734157532844</v>
       </c>
       <c r="L17">
-        <v>0.2992003463059518</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3053717284466444</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07416257999819376</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.278094771636205</v>
+      </c>
+      <c r="P17">
+        <v>1.067126150829992</v>
+      </c>
+      <c r="Q17">
+        <v>0.9670707136909726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.171690398883982</v>
+        <v>2.486434690944236</v>
       </c>
       <c r="C18">
-        <v>0.2009059286330626</v>
+        <v>0.7718149760137862</v>
       </c>
       <c r="D18">
-        <v>0.1226042023732639</v>
+        <v>0.09829904768951536</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.419874001794085</v>
+        <v>0.420160827385061</v>
       </c>
       <c r="G18">
-        <v>0.0008253919413560073</v>
+        <v>0.2860289795196778</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07149424201505639</v>
       </c>
       <c r="I18">
-        <v>2.48194955554159</v>
+        <v>0.003464043748606649</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2265716283795598</v>
       </c>
       <c r="K18">
-        <v>1.269924379461855</v>
+        <v>0.2008160567024824</v>
       </c>
       <c r="L18">
-        <v>0.2931417937386271</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2978690396108021</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09606098497976134</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3180792913863115</v>
+      </c>
+      <c r="P18">
+        <v>1.01076322520214</v>
+      </c>
+      <c r="Q18">
+        <v>1.031310649664974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.161045212775292</v>
+        <v>2.525691782269689</v>
       </c>
       <c r="C19">
-        <v>0.1990930107792508</v>
+        <v>0.7062343049948936</v>
       </c>
       <c r="D19">
-        <v>0.1225503821352021</v>
+        <v>0.09219102967082904</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.398914982972798</v>
+        <v>0.4490032599539617</v>
       </c>
       <c r="G19">
-        <v>0.0008259846432353348</v>
+        <v>0.3147024393756936</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02623001844852269</v>
       </c>
       <c r="I19">
-        <v>2.469046030556299</v>
+        <v>0.003671209719664503</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2417628014076172</v>
       </c>
       <c r="K19">
-        <v>1.258082713483191</v>
+        <v>0.2227556381221554</v>
       </c>
       <c r="L19">
-        <v>0.2910990620944034</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.295338277572867</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1517945856495686</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3801098079908414</v>
+      </c>
+      <c r="P19">
+        <v>0.9512711710420376</v>
+      </c>
+      <c r="Q19">
+        <v>1.123886688626186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.209098308729125</v>
+        <v>2.717258077867712</v>
       </c>
       <c r="C20">
-        <v>0.2072742965281975</v>
+        <v>0.639347639112799</v>
       </c>
       <c r="D20">
-        <v>0.1227926892554514</v>
+        <v>0.08771572966562502</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.493587770106473</v>
+        <v>0.5107845948622298</v>
       </c>
       <c r="G20">
-        <v>0.0008233234190588694</v>
+        <v>0.3718937859224098</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001644916475340708</v>
       </c>
       <c r="I20">
-        <v>2.527341936304452</v>
+        <v>0.004500016947653229</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2691117466387851</v>
       </c>
       <c r="K20">
-        <v>1.311531039191067</v>
+        <v>0.2596226478157391</v>
       </c>
       <c r="L20">
-        <v>0.3003257974178268</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3067649134642494</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2968947865786475</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5031364906897267</v>
+      </c>
+      <c r="P20">
+        <v>0.8763433551482507</v>
+      </c>
+      <c r="Q20">
+        <v>1.302500055801914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.373364889114782</v>
+        <v>3.063179649523988</v>
       </c>
       <c r="C21">
-        <v>0.2352075055681411</v>
+        <v>0.6814792533181162</v>
       </c>
       <c r="D21">
-        <v>0.1236101392919835</v>
+        <v>0.09731984230167257</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.818346823651467</v>
+        <v>0.5625275665763638</v>
       </c>
       <c r="G21">
-        <v>0.0008144802600803914</v>
+        <v>0.4104319589859671</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0004282133506807728</v>
       </c>
       <c r="I21">
-        <v>2.72749765815604</v>
+        <v>0.006229588436691635</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2827096484168266</v>
       </c>
       <c r="K21">
-        <v>1.494149423966547</v>
+        <v>0.2655246060385004</v>
       </c>
       <c r="L21">
-        <v>0.3319668976529471</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3458716193967604</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3379174934619016</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5738116095734824</v>
+      </c>
+      <c r="P21">
+        <v>0.8731700696078946</v>
+      </c>
+      <c r="Q21">
+        <v>1.412982475657969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.483097312505635</v>
+        <v>3.288060613050618</v>
       </c>
       <c r="C22">
-        <v>0.2538516495852861</v>
+        <v>0.7108775897000896</v>
       </c>
       <c r="D22">
-        <v>0.1241486859750012</v>
+        <v>0.1037831736062245</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.036161838012305</v>
+        <v>0.5958203513959432</v>
       </c>
       <c r="G22">
-        <v>0.000808765162478525</v>
+        <v>0.4349917045441458</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0008399266946932382</v>
       </c>
       <c r="I22">
-        <v>2.861879762162033</v>
+        <v>0.007248028963039665</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2913298012058476</v>
       </c>
       <c r="K22">
-        <v>1.616086260887357</v>
+        <v>0.2687912684920803</v>
       </c>
       <c r="L22">
-        <v>0.3531772810257081</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3720286408050129</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3564053573044816</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6150707528739474</v>
+      </c>
+      <c r="P22">
+        <v>0.8736192144215238</v>
+      </c>
+      <c r="Q22">
+        <v>1.48329373111585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.424295007253903</v>
+        <v>3.171490863898555</v>
       </c>
       <c r="C23">
-        <v>0.243861567847631</v>
+        <v>0.6933700071689657</v>
       </c>
       <c r="D23">
-        <v>0.1238607374559777</v>
+        <v>0.1001560843375344</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.919360359931034</v>
+        <v>0.5791807814226928</v>
       </c>
       <c r="G23">
-        <v>0.0008118101156201695</v>
+        <v>0.4230195647308506</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0006064654601818376</v>
       </c>
       <c r="I23">
-        <v>2.789805803850967</v>
+        <v>0.00641716047355434</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2873008081591166</v>
       </c>
       <c r="K23">
-        <v>1.550748038062125</v>
+        <v>0.2679716104461143</v>
       </c>
       <c r="L23">
-        <v>0.3418046746278947</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3580089261601316</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3464631524755362</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5934739105683775</v>
+      </c>
+      <c r="P23">
+        <v>0.8718650505839349</v>
+      </c>
+      <c r="Q23">
+        <v>1.449373083114381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.206449540411683</v>
+        <v>2.723762309054109</v>
       </c>
       <c r="C24">
-        <v>0.2068234798391444</v>
+        <v>0.6301897788689814</v>
       </c>
       <c r="D24">
-        <v>0.1227793747418247</v>
+        <v>0.08674021988393577</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.488365128003437</v>
+        <v>0.5154522177177654</v>
       </c>
       <c r="G24">
-        <v>0.0008234691702525475</v>
+        <v>0.3767540111376064</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.894477010182086E-05</v>
       </c>
       <c r="I24">
-        <v>2.524125364104449</v>
+        <v>0.004063697246940556</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2716740591058056</v>
       </c>
       <c r="K24">
-        <v>1.308585248965443</v>
+        <v>0.2639231134348599</v>
       </c>
       <c r="L24">
-        <v>0.299816829240271</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3061348869649123</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3090060029177835</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5109652929573727</v>
+      </c>
+      <c r="P24">
+        <v>0.8689971117412369</v>
+      </c>
+      <c r="Q24">
+        <v>1.318164720121558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9799353335411354</v>
+        <v>2.239384956718766</v>
       </c>
       <c r="C25">
-        <v>0.1681876133420985</v>
+        <v>0.5622012297752974</v>
       </c>
       <c r="D25">
-        <v>0.1216200795609268</v>
+        <v>0.07231584682633496</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.043654631677697</v>
+        <v>0.4490754519495539</v>
       </c>
       <c r="G25">
-        <v>0.00083637676477713</v>
+        <v>0.3287836352998568</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001306194931787186</v>
       </c>
       <c r="I25">
-        <v>2.25054499627359</v>
+        <v>0.00225541691663711</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2560290749937479</v>
       </c>
       <c r="K25">
-        <v>1.056476676909597</v>
+        <v>0.2607781240879454</v>
       </c>
       <c r="L25">
-        <v>0.2564705936948144</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2523390565648995</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2687143592366823</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4218827222926649</v>
+      </c>
+      <c r="P25">
+        <v>0.8686315811601801</v>
+      </c>
+      <c r="Q25">
+        <v>1.18324395667824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.889389132529345</v>
+        <v>1.846770739114731</v>
       </c>
       <c r="C2">
-        <v>0.5079095567926259</v>
+        <v>0.5114887475133827</v>
       </c>
       <c r="D2">
-        <v>0.06129743010614419</v>
+        <v>0.06361877473720057</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4048085437720985</v>
+        <v>0.3889114644226552</v>
       </c>
       <c r="G2">
-        <v>0.2977350310525679</v>
+        <v>0.2647139147052897</v>
       </c>
       <c r="H2">
-        <v>0.0006806236807893606</v>
+        <v>0.0005996095924083455</v>
       </c>
       <c r="I2">
-        <v>0.0008362673304249668</v>
+        <v>0.001035536148258132</v>
       </c>
       <c r="J2">
-        <v>0.2469045644364272</v>
+        <v>0.2812240786635911</v>
       </c>
       <c r="K2">
-        <v>0.2617545172485265</v>
+        <v>0.2445017110593533</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.139101679614182</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05566061307436421</v>
       </c>
       <c r="N2">
-        <v>0.2389284557809788</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.3571613782975191</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8673135566698136</v>
+        <v>0.2421018636416861</v>
       </c>
       <c r="Q2">
-        <v>1.097949294607474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3516342299962076</v>
+      </c>
+      <c r="R2">
+        <v>0.8789765677974941</v>
+      </c>
+      <c r="S2">
+        <v>1.04733526021019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.646433815272502</v>
+        <v>1.614153764665161</v>
       </c>
       <c r="C3">
-        <v>0.4735186183203695</v>
+        <v>0.4708979886736699</v>
       </c>
       <c r="D3">
-        <v>0.05407463131768964</v>
+        <v>0.05580028338966514</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3740947387595455</v>
+        <v>0.3611164678060419</v>
       </c>
       <c r="G3">
-        <v>0.2757977620456415</v>
+        <v>0.2454252575616636</v>
       </c>
       <c r="H3">
-        <v>0.001338234407943117</v>
+        <v>0.001177190223403901</v>
       </c>
       <c r="I3">
-        <v>0.0004981879040819592</v>
+        <v>0.0006635966998844722</v>
       </c>
       <c r="J3">
-        <v>0.2404054300429337</v>
+        <v>0.2745757513381619</v>
       </c>
       <c r="K3">
-        <v>0.2616098290220634</v>
+        <v>0.2459462262742704</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1435662076838575</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05356766527628309</v>
       </c>
       <c r="N3">
-        <v>0.2188276492304269</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3126025191139021</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8696042685099954</v>
+        <v>0.222260724601945</v>
       </c>
       <c r="Q3">
-        <v>1.037569847431115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3082928859269813</v>
+      </c>
+      <c r="R3">
+        <v>0.875129797476518</v>
+      </c>
+      <c r="S3">
+        <v>0.9955487308226907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.49658083701533</v>
+        <v>1.470433758684493</v>
       </c>
       <c r="C4">
-        <v>0.4524220849883136</v>
+        <v>0.4461175154393828</v>
       </c>
       <c r="D4">
-        <v>0.0496449960333436</v>
+        <v>0.05101505221058744</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3556087556575633</v>
+        <v>0.3443292968067126</v>
       </c>
       <c r="G4">
-        <v>0.2626153046145276</v>
+        <v>0.2338514364509265</v>
       </c>
       <c r="H4">
-        <v>0.00187209760111573</v>
+        <v>0.001646050072904526</v>
       </c>
       <c r="I4">
-        <v>0.0004300215572894395</v>
+        <v>0.000556134159874766</v>
       </c>
       <c r="J4">
-        <v>0.236633405015013</v>
+        <v>0.2705642902099328</v>
       </c>
       <c r="K4">
-        <v>0.2617305369775664</v>
+        <v>0.2469771462118828</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1464189195498129</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05278343253237594</v>
       </c>
       <c r="N4">
-        <v>0.2064757837916815</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.2851623759227095</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8716623020759542</v>
+        <v>0.210080849076526</v>
       </c>
       <c r="Q4">
-        <v>1.001554938911525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2815714553789519</v>
+      </c>
+      <c r="R4">
+        <v>0.873504620478748</v>
+      </c>
+      <c r="S4">
+        <v>0.9645143438710306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.434511641539473</v>
+        <v>1.410813338517414</v>
       </c>
       <c r="C5">
-        <v>0.4442527489044181</v>
+        <v>0.436506091021954</v>
       </c>
       <c r="D5">
-        <v>0.04788325585911934</v>
+        <v>0.04911198006792006</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3478660599512722</v>
+        <v>0.3372590149437755</v>
       </c>
       <c r="G5">
-        <v>0.2570135959277522</v>
+        <v>0.228908523393919</v>
       </c>
       <c r="H5">
-        <v>0.002122583363968755</v>
+        <v>0.00186612756337079</v>
       </c>
       <c r="I5">
-        <v>0.0005003555315759023</v>
+        <v>0.0006187715115064663</v>
       </c>
       <c r="J5">
-        <v>0.2349960806231266</v>
+        <v>0.2687891073808615</v>
       </c>
       <c r="K5">
-        <v>0.2615835562719298</v>
+        <v>0.2471955572342281</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.147483246186809</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0525356149268843</v>
       </c>
       <c r="N5">
-        <v>0.2014530416122327</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2738563505165068</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8729694471528475</v>
+        <v>0.2051318159697075</v>
       </c>
       <c r="Q5">
-        <v>0.9861795520722012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2705512201941964</v>
+      </c>
+      <c r="R5">
+        <v>0.8733542882341396</v>
+      </c>
+      <c r="S5">
+        <v>0.9511107547274946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.423176932104326</v>
+        <v>1.399884703226149</v>
       </c>
       <c r="C6">
-        <v>0.4434193896955207</v>
+        <v>0.4354703066040173</v>
       </c>
       <c r="D6">
-        <v>0.04764290220459344</v>
+        <v>0.04884960142319983</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3462213624190227</v>
+        <v>0.3357281917725885</v>
       </c>
       <c r="G6">
-        <v>0.2557237598064077</v>
+        <v>0.227737804004839</v>
       </c>
       <c r="H6">
-        <v>0.002168027430815789</v>
+        <v>0.001906151108465592</v>
       </c>
       <c r="I6">
-        <v>0.0006005647233360278</v>
+        <v>0.0007344901764625433</v>
       </c>
       <c r="J6">
-        <v>0.2345400510588647</v>
+        <v>0.2683027887147702</v>
       </c>
       <c r="K6">
-        <v>0.2612603567240939</v>
+        <v>0.2469451860019838</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1475081844808841</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05243619072829286</v>
       </c>
       <c r="N6">
-        <v>0.2006365248061428</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2718517144456278</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8735759341710505</v>
+        <v>0.2043281343517691</v>
       </c>
       <c r="Q6">
-        <v>0.9824780352217886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2685935044994388</v>
+      </c>
+      <c r="R6">
+        <v>0.8737471018976422</v>
+      </c>
+      <c r="S6">
+        <v>0.9477501585524948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.492955200967941</v>
+        <v>1.465888517953744</v>
       </c>
       <c r="C7">
-        <v>0.4537469497121123</v>
+        <v>0.4470317234758738</v>
       </c>
       <c r="D7">
-        <v>0.04976407963706464</v>
+        <v>0.0512394652067627</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3545083235713378</v>
+        <v>0.3425745898433021</v>
       </c>
       <c r="G7">
-        <v>0.2615453274881148</v>
+        <v>0.2354833223830042</v>
       </c>
       <c r="H7">
-        <v>0.001880287098656841</v>
+        <v>0.001655352943813693</v>
       </c>
       <c r="I7">
-        <v>0.0006523556460518165</v>
+        <v>0.000822014113909475</v>
       </c>
       <c r="J7">
-        <v>0.2360997414837342</v>
+        <v>0.2661350912231271</v>
       </c>
       <c r="K7">
-        <v>0.2609047284781667</v>
+        <v>0.2459320472639988</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1458903580875663</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05252572811390266</v>
       </c>
       <c r="N7">
-        <v>0.2064574426696879</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2846648554420312</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8727304969197647</v>
+        <v>0.2100786468337574</v>
       </c>
       <c r="Q7">
-        <v>0.998167659250214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2809585790428315</v>
+      </c>
+      <c r="R7">
+        <v>0.8750328833416532</v>
+      </c>
+      <c r="S7">
+        <v>0.9590800450177426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.8020288142543</v>
+        <v>1.759817586134119</v>
       </c>
       <c r="C8">
-        <v>0.4979748076980997</v>
+        <v>0.4978887092698727</v>
       </c>
       <c r="D8">
-        <v>0.05899660717688704</v>
+        <v>0.06146518662887246</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3928170095563388</v>
+        <v>0.3757219685208995</v>
       </c>
       <c r="G8">
-        <v>0.2887900324558856</v>
+        <v>0.2656664355761009</v>
       </c>
       <c r="H8">
-        <v>0.0008837173829783218</v>
+        <v>0.0007821888907477703</v>
       </c>
       <c r="I8">
-        <v>0.0009553642417658992</v>
+        <v>0.001198237178561712</v>
       </c>
       <c r="J8">
-        <v>0.2439415864394547</v>
+        <v>0.2655616673497363</v>
       </c>
       <c r="K8">
-        <v>0.2605753801240702</v>
+        <v>0.243087050467846</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1397345783168014</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05428624459730358</v>
       </c>
       <c r="N8">
-        <v>0.232068101646739</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3413528062956956</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8694166371887349</v>
+        <v>0.235381348262564</v>
       </c>
       <c r="Q8">
-        <v>1.072691827466841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3358530288227684</v>
+      </c>
+      <c r="R8">
+        <v>0.8804704133310111</v>
+      </c>
+      <c r="S8">
+        <v>1.018135936980897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.407895445816166</v>
+        <v>2.337666975999753</v>
       </c>
       <c r="C9">
-        <v>0.5824098133155076</v>
+        <v>0.59788220108112</v>
       </c>
       <c r="D9">
-        <v>0.07690722360099045</v>
+        <v>0.08102044627040783</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4729424647795284</v>
+        <v>0.4473672507184077</v>
       </c>
       <c r="G9">
-        <v>0.3464998265561405</v>
+        <v>0.3191759462665829</v>
       </c>
       <c r="H9">
-        <v>2.297738842149677E-05</v>
+        <v>2.160092513436851E-05</v>
       </c>
       <c r="I9">
-        <v>0.002402815801495706</v>
+        <v>0.002557449729019723</v>
       </c>
       <c r="J9">
-        <v>0.2620607322608208</v>
+        <v>0.2796741153763023</v>
       </c>
       <c r="K9">
-        <v>0.2631409503490438</v>
+        <v>0.2410466489173437</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1296816414721729</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0623882457204985</v>
       </c>
       <c r="N9">
-        <v>0.2821760953392811</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4525414775084755</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8663135873083476</v>
+        <v>0.2849237710542241</v>
       </c>
       <c r="Q9">
-        <v>1.233592577340005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4437140441288534</v>
+      </c>
+      <c r="R9">
+        <v>0.8935691744383192</v>
+      </c>
+      <c r="S9">
+        <v>1.153832387859666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.839763663659539</v>
+        <v>2.743258263550501</v>
       </c>
       <c r="C10">
-        <v>0.6528398526891692</v>
+        <v>0.6773529363187833</v>
       </c>
       <c r="D10">
-        <v>0.09090883845887276</v>
+        <v>0.0968885658775136</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5289845089432674</v>
+        <v>0.4932457806195885</v>
       </c>
       <c r="G10">
-        <v>0.3855951325389668</v>
+        <v>0.3718440233704712</v>
       </c>
       <c r="H10">
-        <v>0.0003112697228511152</v>
+        <v>0.0002887274271685669</v>
       </c>
       <c r="I10">
-        <v>0.00437687122762398</v>
+        <v>0.004359374277771444</v>
       </c>
       <c r="J10">
-        <v>0.2740204381752278</v>
+        <v>0.2672299423562876</v>
       </c>
       <c r="K10">
-        <v>0.2620882015307089</v>
+        <v>0.2354876599861129</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1211232304372611</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.06883141326937192</v>
       </c>
       <c r="N10">
-        <v>0.3028500025435648</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5231978250539626</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8748296439574688</v>
+        <v>0.3052183335637864</v>
       </c>
       <c r="Q10">
-        <v>1.341932221272941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5113032273983862</v>
+      </c>
+      <c r="R10">
+        <v>0.9173574035863226</v>
+      </c>
+      <c r="S10">
+        <v>1.231568715334532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.953530843644614</v>
+        <v>2.846122437658437</v>
       </c>
       <c r="C11">
-        <v>0.7556829813053128</v>
+        <v>0.7774567584535532</v>
       </c>
       <c r="D11">
-        <v>0.1038667798574693</v>
+        <v>0.1115914689824677</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5130058786951395</v>
+        <v>0.470798953486927</v>
       </c>
       <c r="G11">
-        <v>0.3623166898064625</v>
+        <v>0.386481645626958</v>
       </c>
       <c r="H11">
-        <v>0.01883163034753466</v>
+        <v>0.0188059871608246</v>
       </c>
       <c r="I11">
-        <v>0.005458270055742176</v>
+        <v>0.005435267362288165</v>
       </c>
       <c r="J11">
-        <v>0.2586784142003182</v>
+        <v>0.2150531593682103</v>
       </c>
       <c r="K11">
-        <v>0.2298865616730943</v>
+        <v>0.2047521310268436</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1079193401716818</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0601207984336618</v>
       </c>
       <c r="N11">
-        <v>0.1926173619794795</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.465629665130642</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9455045911217468</v>
+        <v>0.1939344006185522</v>
       </c>
       <c r="Q11">
-        <v>1.260635294286743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4534421912283975</v>
+      </c>
+      <c r="R11">
+        <v>1.001838275512</v>
+      </c>
+      <c r="S11">
+        <v>1.132765186626216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.96165678597913</v>
+        <v>2.854381088555726</v>
       </c>
       <c r="C12">
-        <v>0.8321548944504684</v>
+        <v>0.8499704531464545</v>
       </c>
       <c r="D12">
-        <v>0.1119660315609394</v>
+        <v>0.1203772600892137</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4890201944332233</v>
+        <v>0.4461058496418602</v>
       </c>
       <c r="G12">
-        <v>0.3362648427335273</v>
+        <v>0.3784379962447275</v>
       </c>
       <c r="H12">
-        <v>0.05745674392463229</v>
+        <v>0.05743876150528848</v>
       </c>
       <c r="I12">
-        <v>0.005568335175292205</v>
+        <v>0.005513986183083297</v>
       </c>
       <c r="J12">
-        <v>0.2440026181743349</v>
+        <v>0.1895167030207361</v>
       </c>
       <c r="K12">
-        <v>0.2058842139850192</v>
+        <v>0.1837811417807842</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1002133305312594</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05251256590083564</v>
       </c>
       <c r="N12">
-        <v>0.1238499633474923</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4059926627517854</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.009101361781518</v>
+        <v>0.1242721669110125</v>
       </c>
       <c r="Q12">
-        <v>1.174744966411367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.394680285223167</v>
+      </c>
+      <c r="R12">
+        <v>1.071752916956953</v>
+      </c>
+      <c r="S12">
+        <v>1.046794927745509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.88446462795082</v>
+        <v>2.788501349494709</v>
       </c>
       <c r="C13">
-        <v>0.8941516450762492</v>
+        <v>0.9091469062958026</v>
       </c>
       <c r="D13">
-        <v>0.1169382290768652</v>
+        <v>0.1248565033663454</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4557873799273509</v>
+        <v>0.4180062273279077</v>
       </c>
       <c r="G13">
-        <v>0.3049263359647512</v>
+        <v>0.3438811217269375</v>
       </c>
       <c r="H13">
-        <v>0.113150863484492</v>
+        <v>0.1131463018881362</v>
       </c>
       <c r="I13">
-        <v>0.005241650620326332</v>
+        <v>0.005224046077688449</v>
       </c>
       <c r="J13">
-        <v>0.228121136656128</v>
+        <v>0.1832012954473328</v>
       </c>
       <c r="K13">
-        <v>0.1854229977477573</v>
+        <v>0.1678722986799936</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09526891511204738</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04524149506532815</v>
       </c>
       <c r="N13">
-        <v>0.08286220350549556</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3411478644088461</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.071303961551706</v>
+        <v>0.08256130957632735</v>
       </c>
       <c r="Q13">
-        <v>1.075042227431993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3317700803547723</v>
+      </c>
+      <c r="R13">
+        <v>1.132386614425783</v>
+      </c>
+      <c r="S13">
+        <v>0.9643153962552447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.791205826159853</v>
+        <v>2.707974462890377</v>
       </c>
       <c r="C14">
-        <v>0.9319303981940834</v>
+        <v>0.9456047887009333</v>
       </c>
       <c r="D14">
-        <v>0.1190537896788015</v>
+        <v>0.1260736262468782</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4282498361777414</v>
+        <v>0.3964191795198886</v>
       </c>
       <c r="G14">
-        <v>0.280572838646215</v>
+        <v>0.3089211819043243</v>
       </c>
       <c r="H14">
-        <v>0.1624624828415762</v>
+        <v>0.1624660590797902</v>
       </c>
       <c r="I14">
-        <v>0.004903621314229056</v>
+        <v>0.004954134387229026</v>
       </c>
       <c r="J14">
-        <v>0.2164189754094608</v>
+        <v>0.1859619391353462</v>
       </c>
       <c r="K14">
-        <v>0.1728451403414404</v>
+        <v>0.1588597907466234</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0928164712138928</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04042721372428026</v>
       </c>
       <c r="N14">
-        <v>0.0705893693192447</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2941987464931231</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.114989276650832</v>
+        <v>0.06994350594731813</v>
       </c>
       <c r="Q14">
-        <v>0.9988652609814324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2865254963333257</v>
+      </c>
+      <c r="R14">
+        <v>1.17096159314741</v>
+      </c>
+      <c r="S14">
+        <v>0.9068976652591516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.749458313520563</v>
+        <v>2.671425188909666</v>
       </c>
       <c r="C15">
-        <v>0.9378379777076873</v>
+        <v>0.9516021826647432</v>
       </c>
       <c r="D15">
-        <v>0.1189118840280088</v>
+        <v>0.1254803930216752</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4192850138103665</v>
+        <v>0.3899303553304776</v>
       </c>
       <c r="G15">
-        <v>0.2731810551797125</v>
+        <v>0.2955551282636577</v>
       </c>
       <c r="H15">
-        <v>0.1749579920127644</v>
+        <v>0.1749640189937764</v>
       </c>
       <c r="I15">
-        <v>0.004833414092444421</v>
+        <v>0.004936189141219849</v>
       </c>
       <c r="J15">
-        <v>0.2131546325048603</v>
+        <v>0.1897160026435927</v>
       </c>
       <c r="K15">
-        <v>0.1701295131125828</v>
+        <v>0.1572303566682791</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09252861718167527</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03922392040057154</v>
       </c>
       <c r="N15">
-        <v>0.06976424952214577</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2812404268249082</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.124826107876757</v>
+        <v>0.06909765699815829</v>
       </c>
       <c r="Q15">
-        <v>0.9763305240590938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.274149736528063</v>
+      </c>
+      <c r="R15">
+        <v>1.177944373358244</v>
+      </c>
+      <c r="S15">
+        <v>0.8918800141768202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.579295232443371</v>
+        <v>2.51909724594185</v>
       </c>
       <c r="C16">
-        <v>0.8934641035775428</v>
+        <v>0.9100298274578336</v>
       </c>
       <c r="D16">
-        <v>0.1117556282624435</v>
+        <v>0.116408625205608</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4013500338316121</v>
+        <v>0.3806763925081142</v>
       </c>
       <c r="G16">
-        <v>0.2622653514764579</v>
+        <v>0.2571104461682765</v>
       </c>
       <c r="H16">
-        <v>0.1621524124725937</v>
+        <v>0.1621613190927746</v>
       </c>
       <c r="I16">
-        <v>0.004121397908599</v>
+        <v>0.004362974274365605</v>
       </c>
       <c r="J16">
-        <v>0.2108745794303601</v>
+        <v>0.218722053350902</v>
       </c>
       <c r="K16">
-        <v>0.1742098897298074</v>
+        <v>0.1632978740928355</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09588846722981792</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0391390825955753</v>
       </c>
       <c r="N16">
-        <v>0.07006991808881491</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2657131248319757</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.105154513486113</v>
+        <v>0.06987071182020199</v>
       </c>
       <c r="Q16">
-        <v>0.9482397310076891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2601793225019868</v>
+      </c>
+      <c r="R16">
+        <v>1.145025622503937</v>
+      </c>
+      <c r="S16">
+        <v>0.888883767557445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.498210480535363</v>
+        <v>2.443359736620266</v>
       </c>
       <c r="C17">
-        <v>0.8393169233920901</v>
+        <v>0.8574238426819534</v>
       </c>
       <c r="D17">
-        <v>0.1051660179812757</v>
+        <v>0.1090862623745465</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4022456915701511</v>
+        <v>0.3842727259614307</v>
       </c>
       <c r="G17">
-        <v>0.266777973244352</v>
+        <v>0.2494569560588928</v>
       </c>
       <c r="H17">
-        <v>0.1243403535361551</v>
+        <v>0.124344530971257</v>
       </c>
       <c r="I17">
-        <v>0.003791670551048121</v>
+        <v>0.004097852082304954</v>
       </c>
       <c r="J17">
-        <v>0.2153520758972078</v>
+        <v>0.2372407766521576</v>
       </c>
       <c r="K17">
-        <v>0.1838734157532844</v>
+        <v>0.1726656174301002</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1000722057193411</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0413698901889763</v>
       </c>
       <c r="N17">
-        <v>0.07416257999819376</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.278094771636205</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.067126150829992</v>
+        <v>0.07440604863490652</v>
       </c>
       <c r="Q17">
-        <v>0.9670707136909726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2728186988898393</v>
+      </c>
+      <c r="R17">
+        <v>1.101354570136749</v>
+      </c>
+      <c r="S17">
+        <v>0.9149864465473883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.486434690944236</v>
+        <v>2.429232591671223</v>
       </c>
       <c r="C18">
-        <v>0.7718149760137862</v>
+        <v>0.7915549235459309</v>
       </c>
       <c r="D18">
-        <v>0.09829904768951536</v>
+        <v>0.1020964045081172</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.420160827385061</v>
+        <v>0.4014920561300883</v>
       </c>
       <c r="G18">
-        <v>0.2860289795196778</v>
+        <v>0.26167660838275</v>
       </c>
       <c r="H18">
-        <v>0.07149424201505639</v>
+        <v>0.07149571594116821</v>
       </c>
       <c r="I18">
-        <v>0.003464043748606649</v>
+        <v>0.00374150303147669</v>
       </c>
       <c r="J18">
-        <v>0.2265716283795598</v>
+        <v>0.2537816051708219</v>
       </c>
       <c r="K18">
-        <v>0.2008160567024824</v>
+        <v>0.1875412349576013</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1061026231268354</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.046275478713806</v>
       </c>
       <c r="N18">
-        <v>0.09606098497976134</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3180792913863115</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.01076322520214</v>
+        <v>0.09681988300496158</v>
       </c>
       <c r="Q18">
-        <v>1.031310649664974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3121655195518684</v>
+      </c>
+      <c r="R18">
+        <v>1.043179038147088</v>
+      </c>
+      <c r="S18">
+        <v>0.9761538568985202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.525691782269689</v>
+        <v>2.461087033279796</v>
       </c>
       <c r="C19">
-        <v>0.7062343049948936</v>
+        <v>0.7278234555520271</v>
       </c>
       <c r="D19">
-        <v>0.09219102967082904</v>
+        <v>0.09621874728785684</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4490032599539617</v>
+        <v>0.4274753157274063</v>
       </c>
       <c r="G19">
-        <v>0.3147024393756936</v>
+        <v>0.2855867286562557</v>
       </c>
       <c r="H19">
-        <v>0.02623001844852269</v>
+        <v>0.02623218258011661</v>
       </c>
       <c r="I19">
-        <v>0.003671209719664503</v>
+        <v>0.00396311501625668</v>
       </c>
       <c r="J19">
-        <v>0.2417628014076172</v>
+        <v>0.2692197105842453</v>
       </c>
       <c r="K19">
-        <v>0.2227556381221554</v>
+        <v>0.2060858627563924</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1132427468025714</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05310611728948089</v>
       </c>
       <c r="N19">
-        <v>0.1517945856495686</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3801098079908414</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9512711710420376</v>
+        <v>0.1531807916258501</v>
       </c>
       <c r="Q19">
-        <v>1.123886688626186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3728702130822654</v>
+      </c>
+      <c r="R19">
+        <v>0.9839198584018192</v>
+      </c>
+      <c r="S19">
+        <v>1.058951188161586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.717258077867712</v>
+        <v>2.631462025568567</v>
       </c>
       <c r="C20">
-        <v>0.639347639112799</v>
+        <v>0.6637298887714849</v>
       </c>
       <c r="D20">
-        <v>0.08771572966562502</v>
+        <v>0.09282295015686515</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5107845948622298</v>
+        <v>0.480298831836798</v>
       </c>
       <c r="G20">
-        <v>0.3718937859224098</v>
+        <v>0.3446800627280027</v>
       </c>
       <c r="H20">
-        <v>0.0001644916475340708</v>
+        <v>0.0001556958876056669</v>
       </c>
       <c r="I20">
-        <v>0.004500016947653229</v>
+        <v>0.004710366497174157</v>
       </c>
       <c r="J20">
-        <v>0.2691117466387851</v>
+        <v>0.281735426464337</v>
       </c>
       <c r="K20">
-        <v>0.2596226478157391</v>
+        <v>0.2353575932289083</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1227387379038944</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.06640433857799977</v>
       </c>
       <c r="N20">
-        <v>0.2968947865786475</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5031364906897267</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8763433551482507</v>
+        <v>0.2992990303931578</v>
       </c>
       <c r="Q20">
-        <v>1.302500055801914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4925127564282477</v>
+      </c>
+      <c r="R20">
+        <v>0.9134998484234274</v>
+      </c>
+      <c r="S20">
+        <v>1.208355403838169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.063179649523988</v>
+        <v>2.93579691627798</v>
       </c>
       <c r="C21">
-        <v>0.6814792533181162</v>
+        <v>0.7032623925335599</v>
       </c>
       <c r="D21">
-        <v>0.09731984230167257</v>
+        <v>0.1060493452870475</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5625275665763638</v>
+        <v>0.5102726456321776</v>
       </c>
       <c r="G21">
-        <v>0.4104319589859671</v>
+        <v>0.4483245833483664</v>
       </c>
       <c r="H21">
-        <v>0.0004282133506807728</v>
+        <v>0.0003512077615006604</v>
       </c>
       <c r="I21">
-        <v>0.006229588436691635</v>
+        <v>0.006157700743462335</v>
       </c>
       <c r="J21">
-        <v>0.2827096484168266</v>
+        <v>0.2156369945327512</v>
       </c>
       <c r="K21">
-        <v>0.2655246060385004</v>
+        <v>0.2319602510229259</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1167700779426326</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07216374429683015</v>
       </c>
       <c r="N21">
-        <v>0.3379174934619016</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5738116095734824</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8731700696078946</v>
+        <v>0.3405969052017213</v>
       </c>
       <c r="Q21">
-        <v>1.412982475657969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.558013191425843</v>
+      </c>
+      <c r="R21">
+        <v>0.9312228981130488</v>
+      </c>
+      <c r="S21">
+        <v>1.251551502823816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.288060613050618</v>
+        <v>3.131905744832352</v>
       </c>
       <c r="C22">
-        <v>0.7108775897000896</v>
+        <v>0.7300816114309328</v>
       </c>
       <c r="D22">
-        <v>0.1037831736062245</v>
+        <v>0.1151003006439169</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5958203513959432</v>
+        <v>0.5282299732091502</v>
       </c>
       <c r="G22">
-        <v>0.4349917045441458</v>
+        <v>0.5246068632378638</v>
       </c>
       <c r="H22">
-        <v>0.0008399266946932382</v>
+        <v>0.0006876424721830032</v>
       </c>
       <c r="I22">
-        <v>0.007248028963039665</v>
+        <v>0.006883104600497347</v>
       </c>
       <c r="J22">
-        <v>0.2913298012058476</v>
+        <v>0.1776005466375068</v>
       </c>
       <c r="K22">
-        <v>0.2687912684920803</v>
+        <v>0.228883255646263</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1127331301227343</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07584905822197285</v>
       </c>
       <c r="N22">
-        <v>0.3564053573044816</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6150707528739474</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8736192144215238</v>
+        <v>0.3592811960407403</v>
       </c>
       <c r="Q22">
-        <v>1.48329373111585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5957341319170126</v>
+      </c>
+      <c r="R22">
+        <v>0.9464448736007398</v>
+      </c>
+      <c r="S22">
+        <v>1.274611071473686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.171490863898555</v>
+        <v>3.033366161408935</v>
       </c>
       <c r="C23">
-        <v>0.6933700071689657</v>
+        <v>0.7151489372557478</v>
       </c>
       <c r="D23">
-        <v>0.1001560843375344</v>
+        <v>0.1097733581644604</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5791807814226928</v>
+        <v>0.5215548289640566</v>
       </c>
       <c r="G23">
-        <v>0.4230195647308506</v>
+        <v>0.4764211154652145</v>
       </c>
       <c r="H23">
-        <v>0.0006064654601818376</v>
+        <v>0.0004988426788583578</v>
       </c>
       <c r="I23">
-        <v>0.00641716047355434</v>
+        <v>0.006156936850953976</v>
       </c>
       <c r="J23">
-        <v>0.2873008081591166</v>
+        <v>0.2041274010664438</v>
       </c>
       <c r="K23">
-        <v>0.2679716104461143</v>
+        <v>0.2320031950831485</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1153562764274163</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07449735173802097</v>
       </c>
       <c r="N23">
-        <v>0.3464631524755362</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5934739105683775</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.8718650505839349</v>
+        <v>0.3491705232418241</v>
       </c>
       <c r="Q23">
-        <v>1.449373083114381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5763626485399982</v>
+      </c>
+      <c r="R23">
+        <v>0.935242977748544</v>
+      </c>
+      <c r="S23">
+        <v>1.271351345185678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.723762309054109</v>
+        <v>2.63738003284351</v>
       </c>
       <c r="C24">
-        <v>0.6301897788689814</v>
+        <v>0.6543250137718246</v>
       </c>
       <c r="D24">
-        <v>0.08674021988393577</v>
+        <v>0.09182926830234095</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5154522177177654</v>
+        <v>0.4847161471876973</v>
       </c>
       <c r="G24">
-        <v>0.3767540111376064</v>
+        <v>0.3486001540781416</v>
       </c>
       <c r="H24">
-        <v>5.894477010182086E-05</v>
+        <v>4.890798846823863E-05</v>
       </c>
       <c r="I24">
-        <v>0.004063697246940556</v>
+        <v>0.004172188408915645</v>
       </c>
       <c r="J24">
-        <v>0.2716740591058056</v>
+        <v>0.2847628942645883</v>
       </c>
       <c r="K24">
-        <v>0.2639231134348599</v>
+        <v>0.2391360434479601</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1241977050267007</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.06778840002252551</v>
       </c>
       <c r="N24">
-        <v>0.3090060029177835</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5109652929573727</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8689971117412369</v>
+        <v>0.3114959264654118</v>
       </c>
       <c r="Q24">
-        <v>1.318164720121558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5001976690548346</v>
+      </c>
+      <c r="R24">
+        <v>0.9056032788074049</v>
+      </c>
+      <c r="S24">
+        <v>1.223025256172065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.239384956718766</v>
+        <v>2.178381433328468</v>
       </c>
       <c r="C25">
-        <v>0.5622012297752974</v>
+        <v>0.5743099093226078</v>
       </c>
       <c r="D25">
-        <v>0.07231584682633496</v>
+        <v>0.07583206703603196</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4490754519495539</v>
+        <v>0.4268893042846429</v>
       </c>
       <c r="G25">
-        <v>0.3287836352998568</v>
+        <v>0.2987737024159571</v>
       </c>
       <c r="H25">
-        <v>0.0001306194931787186</v>
+        <v>0.0001172189011128255</v>
       </c>
       <c r="I25">
-        <v>0.00225541691663711</v>
+        <v>0.002541489327427371</v>
       </c>
       <c r="J25">
-        <v>0.2560290749937479</v>
+        <v>0.2802431524389348</v>
       </c>
       <c r="K25">
-        <v>0.2607781240879454</v>
+        <v>0.2404618075748139</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1318972976268729</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05941334962505707</v>
       </c>
       <c r="N25">
-        <v>0.2687143592366823</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4218827222926649</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8686315811601801</v>
+        <v>0.2715854653092862</v>
       </c>
       <c r="Q25">
-        <v>1.18324395667824</v>
+        <v>0.4141589089115385</v>
+      </c>
+      <c r="R25">
+        <v>0.8909980797269981</v>
+      </c>
+      <c r="S25">
+        <v>1.113793513989265</v>
       </c>
     </row>
   </sheetData>
